--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/analysis/divers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE944FE-5F69-F941-B8D6-EB6FB58A55F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE13E6F-F3A4-2148-91D0-11E6F9C5E047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
+    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="16060" activeTab="6" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri runs" sheetId="9" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Pn 82Ga" sheetId="16" r:id="rId4"/>
     <sheet name="Eff 84Ga" sheetId="15" r:id="rId5"/>
     <sheet name="Pn 84Ga" sheetId="14" r:id="rId6"/>
-    <sheet name="Calbration RUN58" sheetId="7" r:id="rId7"/>
-    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId8"/>
-    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId9"/>
-    <sheet name="RUN51" sheetId="10" r:id="rId10"/>
-    <sheet name="RUN55" sheetId="13" r:id="rId11"/>
-    <sheet name="RUN56" sheetId="11" r:id="rId12"/>
-    <sheet name="RUN61" sheetId="12" r:id="rId13"/>
+    <sheet name="P2n 84Ga" sheetId="17" r:id="rId7"/>
+    <sheet name="Calbration RUN58" sheetId="7" r:id="rId8"/>
+    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId9"/>
+    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId10"/>
+    <sheet name="RUN51" sheetId="10" r:id="rId11"/>
+    <sheet name="RUN55" sheetId="13" r:id="rId12"/>
+    <sheet name="RUN56" sheetId="11" r:id="rId13"/>
+    <sheet name="RUN61" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="206">
   <si>
     <t>Pn</t>
   </si>
@@ -640,13 +641,31 @@
     <t>Les deux valeurs sont bien cohérentes</t>
   </si>
   <si>
-    <t>Ratio beta/neutron</t>
-  </si>
-  <si>
     <t>Courbe activité beta moche</t>
   </si>
   <si>
     <t>20, 29</t>
+  </si>
+  <si>
+    <t>Méthode n-n</t>
+  </si>
+  <si>
+    <t>N2n</t>
+  </si>
+  <si>
+    <t>Reff</t>
+  </si>
+  <si>
+    <t>Effn</t>
+  </si>
+  <si>
+    <t>P2n</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Ratio eff beta/neutron</t>
   </si>
 </sst>
 </file>
@@ -1861,6 +1880,81 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B99CB8-DB0E-B400-7A2E-1497CC3126D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7150100" y="368300"/>
+          <a:ext cx="2641600" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Ici j'ai pris le ratio calculé pour Pn 84Ga et j'ai pris Effn qui conserve ce ratio avec l'efficacité beta de 82Ga</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>580571</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -2185,7 +2279,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:txDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -2199,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6887EF2-46CF-E446-B33F-5F6D80182EE1}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2460,7 +2589,7 @@
         <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>124</v>
@@ -2543,6 +2672,194 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BAEB1E-CF2C-6A4E-B6C2-6EA04F34FC3D}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="10.625" style="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="9" width="10.625" style="1"/>
+    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18">
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1467.21</v>
+      </c>
+      <c r="E4" s="1">
+        <f>(SQRT(2*PI())*C6*C4)</f>
+        <v>4175.7542079112691</v>
+      </c>
+      <c r="G4" s="1">
+        <f>E9/E4</f>
+        <v>0.53247653583503463</v>
+      </c>
+      <c r="H4" s="1">
+        <f>E14/E4</f>
+        <v>0.5671611174999649</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1443030</v>
+      </c>
+      <c r="K4" s="7">
+        <v>11382700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18">
+      <c r="C5" s="9">
+        <v>711.02300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18">
+      <c r="C6" s="9">
+        <v>1.13541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="18">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>780.23099999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <f>(SQRT(2*PI())*C11*C9)</f>
+        <v>2223.4911351271617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18">
+      <c r="C10" s="6">
+        <v>709.88199999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18">
+      <c r="C11" s="6">
+        <v>1.1369</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="I12" s="1">
+        <f>(J4/K4)*(H21/G4)*100</f>
+        <v>15.579447179280329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>840.09100000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <f>(SQRT(2*PI())*C16*C14)</f>
+        <v>2368.3254229641361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18">
+      <c r="C15" s="6">
+        <v>709.85400000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18">
+      <c r="C16" s="6">
+        <v>1.1246700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18">
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4558.08</v>
+      </c>
+      <c r="E21" s="1">
+        <f>(SQRT(2*PI())*C23*C21)</f>
+        <v>15138.785427111903</v>
+      </c>
+      <c r="H21" s="1">
+        <f>E26/E21</f>
+        <v>0.65436859451512963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18">
+      <c r="C22" s="6">
+        <v>1348.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18">
+      <c r="C23" s="6">
+        <v>1.32501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2999.78</v>
+      </c>
+      <c r="E26" s="1">
+        <f>(SQRT(2*PI())*C28*C26)</f>
+        <v>9906.3457426053428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18">
+      <c r="C27" s="6">
+        <v>1348.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18">
+      <c r="C28" s="6">
+        <v>1.31745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7680E834-25BF-554B-A055-DB729B0B172B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -2726,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB024FC4-B85F-3448-8E2A-E4C44EA629AC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2790,7 +3107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B3A609-792A-7642-9CAD-67077A136A92}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2892,7 +3209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFF8B5B-F9EE-F84C-8391-8E968454A576}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -2964,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376C050-E39F-4E43-B6D2-85F3F9FA265F}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C25"/>
+    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3656,7 +3973,7 @@
         <v>9.5</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18">
@@ -3690,7 +4007,7 @@
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18">
@@ -4162,7 +4479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFFCE4E-1904-9441-B800-76A5932E8BAB}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="J8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -5411,7 +5728,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5509,7 +5826,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5685,12 +6002,12 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -5704,7 +6021,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18">
       <c r="A1" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>180</v>
@@ -5723,15 +6040,15 @@
       <c r="A2" s="3">
         <v>1.5209999999999999</v>
       </c>
-      <c r="B2" s="6">
-        <v>210092</v>
-      </c>
-      <c r="C2" s="6">
-        <v>902950</v>
+      <c r="B2" s="27">
+        <v>215776</v>
+      </c>
+      <c r="C2" s="27">
+        <v>925019</v>
       </c>
       <c r="D2" s="2">
         <f>(B2/C2)*A2*100</f>
-        <v>35.389548922974697</v>
+        <v>35.479843765371307</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18">
@@ -5812,6 +6129,66 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF5F47-D2FE-7143-818C-1205758ECD6B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2">
+        <v>4076</v>
+      </c>
+      <c r="C2" s="27">
+        <v>925019</v>
+      </c>
+      <c r="D2">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.51</v>
+      </c>
+      <c r="F2">
+        <f>(D2/E2)*(B2/C2)*100</f>
+        <v>1.3141428001192725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B76971B-B785-D444-906E-B14BE718062E}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -6013,7 +6390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A7681-1608-124E-8520-29226F63BDFF}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -6228,192 +6605,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BAEB1E-CF2C-6A4E-B6C2-6EA04F34FC3D}">
-  <dimension ref="A1:K28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="10.625" style="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="9" width="10.625" style="1"/>
-    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18">
-      <c r="C1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1467.21</v>
-      </c>
-      <c r="E4" s="1">
-        <f>(SQRT(2*PI())*C6*C4)</f>
-        <v>4175.7542079112691</v>
-      </c>
-      <c r="G4" s="1">
-        <f>E9/E4</f>
-        <v>0.53247653583503463</v>
-      </c>
-      <c r="H4" s="1">
-        <f>E14/E4</f>
-        <v>0.5671611174999649</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1443030</v>
-      </c>
-      <c r="K4" s="7">
-        <v>11382700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18">
-      <c r="C5" s="9">
-        <v>711.02300000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18">
-      <c r="C6" s="9">
-        <v>1.13541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6">
-        <v>780.23099999999999</v>
-      </c>
-      <c r="E9" s="1">
-        <f>(SQRT(2*PI())*C11*C9)</f>
-        <v>2223.4911351271617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18">
-      <c r="C10" s="6">
-        <v>709.88199999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18">
-      <c r="C11" s="6">
-        <v>1.1369</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="I12" s="1">
-        <f>(J4/K4)*(H21/G4)*100</f>
-        <v>15.579447179280329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6">
-        <v>840.09100000000001</v>
-      </c>
-      <c r="E14" s="1">
-        <f>(SQRT(2*PI())*C16*C14)</f>
-        <v>2368.3254229641361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18">
-      <c r="C15" s="6">
-        <v>709.85400000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18">
-      <c r="C16" s="6">
-        <v>1.1246700000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18">
-      <c r="C19" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="6">
-        <v>4558.08</v>
-      </c>
-      <c r="E21" s="1">
-        <f>(SQRT(2*PI())*C23*C21)</f>
-        <v>15138.785427111903</v>
-      </c>
-      <c r="H21" s="1">
-        <f>E26/E21</f>
-        <v>0.65436859451512963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18">
-      <c r="C22" s="6">
-        <v>1348.17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18">
-      <c r="C23" s="6">
-        <v>1.32501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2999.78</v>
-      </c>
-      <c r="E26" s="1">
-        <f>(SQRT(2*PI())*C28*C26)</f>
-        <v>9906.3457426053428</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18">
-      <c r="C27" s="6">
-        <v>1348.16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18">
-      <c r="C28" s="6">
-        <v>1.31745</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE13E6F-F3A4-2148-91D0-11E6F9C5E047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DACE57B-0095-B64E-AF61-5425C30AD6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="16060" activeTab="6" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
+    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri runs" sheetId="9" r:id="rId1"/>
@@ -676,7 +676,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -794,6 +794,13 @@
       <color theme="1"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -853,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -895,6 +902,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="2" xr:uid="{16FDB774-F211-F14E-9453-8C6A1F24C04D}"/>
@@ -1880,16 +1888,100 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4305300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBC0EF3-34DA-C4CC-1AA3-EF0D2C0EB30D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6388100" y="1016000"/>
+          <a:ext cx="4953000" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Avec la</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> méthode de Dmitry/Mathematica je trouve 37.7%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1905,7 +1997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7150100" y="368300"/>
-          <a:ext cx="2641600" cy="1397000"/>
+          <a:ext cx="4572000" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1948,10 +2040,223 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE43851-F7E3-484B-87FA-6F66B50D80AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="2882900"/>
+          <a:ext cx="5791200" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Avec méthode beta-n de BELEN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> je trouve </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>P1n = 66.9% et P2n = 1.22%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1400" baseline="0">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>P1n est aberrant mais P2n est correct.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Cette méthode doit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> être corrigé par l'efficacité du detecteur beta qui ne peut pas être moyennée.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ZoneTexte 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD032B7E-B84D-4641-8524-A232729C91AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="1244600"/>
+          <a:ext cx="4572000" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Le</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> fit pour obtenir N2n est une somme d'exponentielle et pol0, à voir si c'est correct.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3281,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376C050-E39F-4E43-B6D2-85F3F9FA265F}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4479,8 +4784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFFCE4E-1904-9441-B800-76A5932E8BAB}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5725,10 +6030,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC6309-A58B-6542-A774-57FD4F318D67}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A16" sqref="A16:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5781,8 +6086,8 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="C5" s="30">
-        <f>(A5/B5)*(B2/A2)</f>
-        <v>0.22505780958288429</v>
+        <f>(A5/B5)*(B2/A2)*100</f>
+        <v>22.50578095828843</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5815,6 +6120,25 @@
       <c r="D11" t="s">
         <v>196</v>
       </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="41"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="29"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="30"/>
+      <c r="C22" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6002,7 +6326,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6125,6 +6449,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6132,8 +6457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF5F47-D2FE-7143-818C-1205758ECD6B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6166,7 +6491,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2">
-        <v>4076</v>
+        <v>4158</v>
       </c>
       <c r="C2" s="27">
         <v>925019</v>
@@ -6175,11 +6500,11 @@
         <v>1.5209999999999999</v>
       </c>
       <c r="E2">
-        <v>0.51</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F2">
         <f>(D2/E2)*(B2/C2)*100</f>
-        <v>1.3141428001192725</v>
+        <v>1.3353437706414677</v>
       </c>
     </row>
   </sheetData>

--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DACE57B-0095-B64E-AF61-5425C30AD6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968567F0-F835-634B-9479-7C8E682B4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
+    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri runs" sheetId="9" r:id="rId1"/>
@@ -2178,14 +2178,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2201,7 +2201,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="1244600"/>
+          <a:off x="6819900" y="1701800"/>
           <a:ext cx="4572000" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3586,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376C050-E39F-4E43-B6D2-85F3F9FA265F}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4784,7 +4784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFFCE4E-1904-9441-B800-76A5932E8BAB}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -6150,7 +6150,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6326,7 +6326,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6365,14 +6365,14 @@
         <v>1.5209999999999999</v>
       </c>
       <c r="B2" s="27">
-        <v>215776</v>
+        <v>223874</v>
       </c>
       <c r="C2" s="27">
-        <v>925019</v>
+        <v>961595</v>
       </c>
       <c r="D2" s="2">
         <f>(B2/C2)*A2*100</f>
-        <v>35.479843765371307</v>
+        <v>35.411202637284923</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18">
@@ -6458,7 +6458,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6491,10 +6491,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2">
-        <v>4158</v>
+        <v>17345</v>
       </c>
       <c r="C2" s="27">
-        <v>925019</v>
+        <v>961595</v>
       </c>
       <c r="D2">
         <v>1.5209999999999999</v>
@@ -6504,7 +6504,7 @@
       </c>
       <c r="F2">
         <f>(D2/E2)*(B2/C2)*100</f>
-        <v>1.3353437706414677</v>
+        <v>5.3584768746847669</v>
       </c>
     </row>
   </sheetData>

--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968567F0-F835-634B-9479-7C8E682B4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C07E21-9292-0D46-AAD3-65B24A12AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
+    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri runs" sheetId="9" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="Eff 84Ga" sheetId="15" r:id="rId5"/>
     <sheet name="Pn 84Ga" sheetId="14" r:id="rId6"/>
     <sheet name="P2n 84Ga" sheetId="17" r:id="rId7"/>
-    <sheet name="Calbration RUN58" sheetId="7" r:id="rId8"/>
-    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId9"/>
-    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId10"/>
-    <sheet name="RUN51" sheetId="10" r:id="rId11"/>
-    <sheet name="RUN55" sheetId="13" r:id="rId12"/>
-    <sheet name="RUN56" sheetId="11" r:id="rId13"/>
-    <sheet name="RUN61" sheetId="12" r:id="rId14"/>
+    <sheet name="Eff 125Ag" sheetId="18" r:id="rId8"/>
+    <sheet name="Pn 125Ag" sheetId="19" r:id="rId9"/>
+    <sheet name="Calbration RUN58" sheetId="7" r:id="rId10"/>
+    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId11"/>
+    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId12"/>
+    <sheet name="RUN51" sheetId="10" r:id="rId13"/>
+    <sheet name="RUN55" sheetId="13" r:id="rId14"/>
+    <sheet name="RUN56" sheetId="11" r:id="rId15"/>
+    <sheet name="RUN61" sheetId="12" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="206">
   <si>
     <t>Pn</t>
   </si>
@@ -455,9 +457,6 @@
     <t>Argent 125</t>
   </si>
   <si>
-    <t>64,65,66,67,68,69,</t>
-  </si>
-  <si>
     <t>Argent 124</t>
   </si>
   <si>
@@ -666,6 +665,9 @@
   </si>
   <si>
     <t>Ratio eff beta/neutron</t>
+  </si>
+  <si>
+    <t>64,65,66,67,68,69</t>
   </si>
 </sst>
 </file>
@@ -779,11 +781,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Menlo Regular"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
     </font>
@@ -800,6 +797,12 @@
       <color rgb="FFFF0000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo Regular"/>
     </font>
   </fonts>
   <fills count="8">
@@ -860,7 +863,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -893,16 +896,22 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="2" xr:uid="{16FDB774-F211-F14E-9453-8C6A1F24C04D}"/>
@@ -1888,16 +1897,116 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6096000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160FA127-5314-A048-810F-0DB994DB605D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5956300" y="2844800"/>
+          <a:ext cx="4457700" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Avec méthode Dmitry, je trouve 22.6%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>C'est</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> très cohérent.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4305300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1913,7 +2022,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6388100" y="1016000"/>
-          <a:ext cx="4953000" cy="660400"/>
+          <a:ext cx="5270500" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1958,7 +2067,7 @@
               <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t> méthode de Dmitry/Mathematica je trouve 37.7%</a:t>
+            <a:t> méthode de Dmitry/Mathematica je trouve 37.7% mais elle n'est pas vraiment correcte car elle ne prend pas en compte les beta-2n.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1968,7 +2077,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2246,7 +2355,7 @@
               <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t> fit pour obtenir N2n est une somme d'exponentielle et pol0, à voir si c'est correct.</a:t>
+            <a:t> fit pour obtenir N2n est une somme de deux exponentielles.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2256,7 +2365,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2634,61 +2743,61 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="10.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="32">
+      <c r="A1" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="42">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="33" t="s">
-        <v>168</v>
+      <c r="B3" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3">
         <v>37</v>
@@ -2696,10 +2805,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3">
         <v>48</v>
@@ -2710,52 +2819,52 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="3">
         <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3">
         <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="3">
         <v>28</v>
@@ -2769,26 +2878,26 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3">
         <v>42</v>
@@ -2796,7 +2905,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3">
         <v>43</v>
@@ -2804,7 +2913,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="3">
         <v>44</v>
@@ -2812,15 +2921,15 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="3">
         <v>52</v>
@@ -2828,24 +2937,24 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="3">
         <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3">
         <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2894,7 +3003,7 @@
         <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>124</v>
@@ -2977,6 +3086,425 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B76971B-B785-D444-906E-B14BE718062E}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24">
+      <c r="A1" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="E3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="E6" s="1">
+        <v>121.7817</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G6" s="16">
+        <v>537.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="E7" s="1">
+        <v>244.69739999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1232</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8" s="1">
+        <v>344.27850000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1794</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9" s="1">
+        <v>411.11649999999997</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="E10" s="1">
+        <v>443.9606</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" s="1">
+        <v>778.90449999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="G11" s="16">
+        <v>4249.8</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12" s="1">
+        <v>867.38</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>4749</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="E13" s="1">
+        <v>964.05700000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G13" s="16">
+        <v>5296</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="E14" s="1">
+        <v>1085.837</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="16">
+        <v>5983.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="E15" s="1">
+        <v>1089.7370000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="16">
+        <v>6005.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16" s="1">
+        <v>1112.076</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="16">
+        <v>6132.08</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="E17" s="1">
+        <v>1408.0129999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="16">
+        <v>7804.35</v>
+      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="21">
+      <c r="A20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.17701043557000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21">
+      <c r="A21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="16">
+        <v>26.646713013999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A7681-1608-124E-8520-29226F63BDFF}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4544</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C3/C2</f>
+        <v>0.64942781690140849</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2080</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8264</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2/E2</f>
+        <v>3.9730769230769232</v>
+      </c>
+      <c r="H2" s="3">
+        <v>58</v>
+      </c>
+      <c r="I2" s="3">
+        <f>F2/H2</f>
+        <v>142.48275862068965</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <f>I2/I8</f>
+        <v>4.2061330958137164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2951</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="18">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>47653</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C9/C8</f>
+        <v>4.4614190082471201E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>271</v>
+      </c>
+      <c r="G8" s="3">
+        <f>F8/E8</f>
+        <v>0.45166666666666666</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3">
+        <f>F8/H8</f>
+        <v>33.875</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="18">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2126</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="18">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BAEB1E-CF2C-6A4E-B6C2-6EA04F34FC3D}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -3164,7 +3692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7680E834-25BF-554B-A055-DB729B0B172B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3179,10 +3707,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3277,7 +3805,7 @@
     </row>
     <row r="16" spans="1:5" ht="18">
       <c r="A16" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="6">
         <v>500.28899999999999</v>
@@ -3348,7 +3876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB024FC4-B85F-3448-8E2A-E4C44EA629AC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3363,10 +3891,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
@@ -3379,7 +3907,7 @@
     </row>
     <row r="4" spans="1:3" ht="18">
       <c r="A4" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="6">
         <v>263.505</v>
@@ -3412,7 +3940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B3A609-792A-7642-9CAD-67077A136A92}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3427,10 +3955,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
@@ -3514,7 +4042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFF8B5B-F9EE-F84C-8391-8E968454A576}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -3530,10 +4058,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
@@ -3546,7 +4074,7 @@
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="7">
         <v>263.589</v>
@@ -3586,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376C050-E39F-4E43-B6D2-85F3F9FA265F}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3608,12 +4136,12 @@
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3647,7 +4175,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3736,7 +4264,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -3754,7 +4282,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -3772,7 +4300,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -3790,7 +4318,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -3808,7 +4336,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18">
-      <c r="A16" s="36">
+      <c r="A16" s="35">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -3826,7 +4354,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18">
-      <c r="A17" s="35">
+      <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -3858,7 +4386,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
@@ -3876,7 +4404,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="18">
-      <c r="A20" s="37">
+      <c r="A20" s="36">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -3894,7 +4422,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="18">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
@@ -3912,7 +4440,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
@@ -3930,7 +4458,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="18">
-      <c r="A23" s="36">
+      <c r="A23" s="35">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -3948,7 +4476,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18">
-      <c r="A24" s="36">
+      <c r="A24" s="35">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -3966,7 +4494,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="18">
-      <c r="A25" s="36">
+      <c r="A25" s="35">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
@@ -3982,7 +4510,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="18">
-      <c r="A26" s="37">
+      <c r="A26" s="36">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
@@ -4082,7 +4610,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="18">
-      <c r="A32" s="37">
+      <c r="A32" s="36">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -4100,7 +4628,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="18">
-      <c r="A33" s="37">
+      <c r="A33" s="36">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -4214,7 +4742,7 @@
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="18">
-      <c r="A40" s="36">
+      <c r="A40" s="35">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -4232,7 +4760,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="18">
-      <c r="A41" s="36">
+      <c r="A41" s="35">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
@@ -4248,7 +4776,7 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="18">
-      <c r="A42" s="36">
+      <c r="A42" s="35">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
@@ -4264,7 +4792,7 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="18">
-      <c r="A43" s="37">
+      <c r="A43" s="36">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -4278,11 +4806,11 @@
         <v>9.5</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18">
-      <c r="A44" s="36">
+      <c r="A44" s="35">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
@@ -4298,7 +4826,7 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="18">
-      <c r="A45" s="37">
+      <c r="A45" s="36">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
@@ -4312,11 +4840,11 @@
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18">
-      <c r="A46" s="36">
+      <c r="A46" s="35">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
@@ -4332,7 +4860,7 @@
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="18">
-      <c r="A47" s="36">
+      <c r="A47" s="35">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
@@ -4348,7 +4876,7 @@
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="18">
-      <c r="A48" s="36">
+      <c r="A48" s="35">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4364,7 +4892,7 @@
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="18">
-      <c r="A49" s="36">
+      <c r="A49" s="35">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -4380,7 +4908,7 @@
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="18">
-      <c r="A50" s="36">
+      <c r="A50" s="35">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
@@ -4396,7 +4924,7 @@
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="18">
-      <c r="A51" s="36">
+      <c r="A51" s="35">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
@@ -4414,7 +4942,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="18">
-      <c r="A52" s="36">
+      <c r="A52" s="35">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
@@ -4430,7 +4958,7 @@
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="18">
-      <c r="A53" s="36">
+      <c r="A53" s="35">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
@@ -4448,7 +4976,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="18">
-      <c r="A54" s="36">
+      <c r="A54" s="35">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
@@ -4464,7 +4992,7 @@
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="18">
-      <c r="A55" s="36">
+      <c r="A55" s="35">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
@@ -4480,7 +5008,7 @@
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="18">
-      <c r="A56" s="37">
+      <c r="A56" s="36">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
@@ -4498,7 +5026,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="18">
-      <c r="A57" s="36">
+      <c r="A57" s="35">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
@@ -4516,7 +5044,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="18">
-      <c r="A58" s="36">
+      <c r="A58" s="35">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
@@ -4532,7 +5060,7 @@
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="18">
-      <c r="A59" s="36">
+      <c r="A59" s="35">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
@@ -4548,7 +5076,7 @@
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="18">
-      <c r="A60" s="36">
+      <c r="A60" s="35">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
@@ -4564,7 +5092,7 @@
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="18">
-      <c r="A61" s="36">
+      <c r="A61" s="35">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
@@ -4580,7 +5108,7 @@
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="18">
-      <c r="A62" s="36">
+      <c r="A62" s="35">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
@@ -4596,14 +5124,14 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="18">
-      <c r="A63" s="36">
+      <c r="A63" s="35">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D63" s="3">
@@ -4612,14 +5140,14 @@
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="18">
-      <c r="A64" s="36">
+      <c r="A64" s="35">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D64" s="3">
@@ -4628,14 +5156,14 @@
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="18">
-      <c r="A65" s="36">
+      <c r="A65" s="35">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D65" s="3">
@@ -4644,14 +5172,14 @@
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="18">
-      <c r="A66" s="36">
+      <c r="A66" s="35">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D66" s="3">
@@ -4660,14 +5188,14 @@
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="18">
-      <c r="A67" s="36">
+      <c r="A67" s="35">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D67" s="3">
@@ -4683,7 +5211,7 @@
       <c r="B68" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D68" s="3">
@@ -4694,14 +5222,14 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="18">
-      <c r="A69" s="39">
+      <c r="A69" s="38">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="37" t="s">
         <v>54</v>
       </c>
       <c r="D69" s="3">
@@ -4710,14 +5238,14 @@
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="18">
-      <c r="A70" s="36">
+      <c r="A70" s="35">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D70" s="3">
@@ -4726,14 +5254,14 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="18">
-      <c r="A71" s="36">
+      <c r="A71" s="35">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D71" s="3">
@@ -4742,14 +5270,14 @@
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="18">
-      <c r="A72" s="36">
+      <c r="A72" s="35">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D72" s="3">
@@ -4758,14 +5286,14 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="18">
-      <c r="A73" s="37">
+      <c r="A73" s="36">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D73" s="3">
@@ -4784,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFFCE4E-1904-9441-B800-76A5932E8BAB}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6033,7 +6561,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6047,35 +6575,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>187</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>188</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29">
-        <v>3585360</v>
-      </c>
-      <c r="B2" s="29">
-        <v>598711</v>
+      <c r="A2" s="28">
+        <v>3637610</v>
+      </c>
+      <c r="B2" s="27">
+        <v>609500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>190</v>
-      </c>
       <c r="C4" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6083,25 +6611,25 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="B5" s="30">
-        <v>0.57799999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C5" s="30">
         <f>(A5/B5)*(B2/A2)*100</f>
-        <v>22.50578095828843</v>
+        <v>22.739616710658137</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6113,16 +6641,16 @@
       </c>
       <c r="C7">
         <f>(A7*B7*A2)/B2</f>
-        <v>0.78096473196584004</v>
+        <v>0.77832022397867118</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="31"/>
@@ -6142,6 +6670,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6150,7 +6679,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6166,19 +6695,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23">
       <c r="A1" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>105</v>
@@ -6239,7 +6768,7 @@
         <v>1.4605125314351755</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18">
@@ -6251,7 +6780,7 @@
         <v>1046.1500000000001</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18">
@@ -6326,7 +6855,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6345,13 +6874,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -6368,11 +6897,11 @@
         <v>223874</v>
       </c>
       <c r="C2" s="27">
-        <v>961595</v>
+        <v>975418</v>
       </c>
       <c r="D2" s="2">
         <f>(B2/C2)*A2*100</f>
-        <v>35.411202637284923</v>
+        <v>34.90937772319149</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18">
@@ -6457,8 +6986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF5F47-D2FE-7143-818C-1205758ECD6B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6468,22 +6997,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>203</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>105</v>
@@ -6514,418 +7043,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B76971B-B785-D444-906E-B14BE718062E}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2ED87E-3B64-C24F-AC59-0C835EBF5EDA}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="E3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="18"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="E6" s="1">
-        <v>121.7817</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G6" s="16">
-        <v>537.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="E7" s="1">
-        <v>244.69739999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1232</v>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="E8" s="1">
-        <v>344.27850000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1794</v>
-      </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="1">
-        <v>411.11649999999997</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G9" s="16">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="E10" s="1">
-        <v>443.9606</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="G10" s="16">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="E11" s="1">
-        <v>778.90449999999998</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="G11" s="16">
-        <v>4249.8</v>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="E12" s="1">
-        <v>867.38</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G12" s="16">
-        <v>4749</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="E13" s="1">
-        <v>964.05700000000002</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G13" s="16">
-        <v>5296</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="E14" s="1">
-        <v>1085.837</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G14" s="16">
-        <v>5983.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="E15" s="1">
-        <v>1089.7370000000001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G15" s="16">
-        <v>6005.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="E16" s="1">
-        <v>1112.076</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="16">
-        <v>6132.08</v>
-      </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="E17" s="1">
-        <v>1408.0129999999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G17" s="16">
-        <v>7804.35</v>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="21">
-      <c r="A20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="16">
-        <v>0.17701043557000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21">
-      <c r="A21" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="16">
-        <v>26.646713013999999</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A7681-1608-124E-8520-29226F63BDFF}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEDDCAB-2D63-E741-858D-EABD32ED0100}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4544</v>
-      </c>
-      <c r="D2" s="3">
-        <f>C3/C2</f>
-        <v>0.64942781690140849</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2080</v>
-      </c>
-      <c r="F2" s="3">
-        <v>8264</v>
-      </c>
-      <c r="G2" s="3">
-        <f>F2/E2</f>
-        <v>3.9730769230769232</v>
-      </c>
-      <c r="H2" s="3">
-        <v>58</v>
-      </c>
-      <c r="I2" s="3">
-        <f>F2/H2</f>
-        <v>142.48275862068965</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <f>I2/I8</f>
-        <v>4.2061330958137164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2951</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="18">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="18">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="18">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="18">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="18">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>47653</v>
-      </c>
-      <c r="D8" s="3">
-        <f>C9/C8</f>
-        <v>4.4614190082471201E-2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>271</v>
-      </c>
-      <c r="G8" s="3">
-        <f>F8/E8</f>
-        <v>0.45166666666666666</v>
-      </c>
-      <c r="H8" s="3">
-        <v>8</v>
-      </c>
-      <c r="I8" s="3">
-        <f>F8/H8</f>
-        <v>33.875</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="18">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2126</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="41">
+        <v>1241480</v>
+      </c>
+      <c r="B2" s="27">
+        <v>16208.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="B5" s="30">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C5" s="30">
+        <f>(B2/A2)*(A5/B5)*100</f>
+        <v>1.7595841351537898</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C07E21-9292-0D46-AAD3-65B24A12AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A53DB-BDFF-7745-A958-97BAF9A4A245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
+    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri runs" sheetId="9" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
   <si>
     <t>Pn</t>
   </si>
@@ -668,6 +668,15 @@
   </si>
   <si>
     <t>64,65,66,67,68,69</t>
+  </si>
+  <si>
+    <t>beta-gamma</t>
+  </si>
+  <si>
+    <t>gamma single</t>
+  </si>
+  <si>
+    <t>eff beta</t>
   </si>
 </sst>
 </file>
@@ -2074,6 +2083,90 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2336800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F34BF7D-7DB1-E561-0121-C3800DB419BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="2552700"/>
+          <a:ext cx="7442200" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Ici dans mon fit beta je prend en compte la branche</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> 2n</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2087,10 +2180,10 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2106,7 +2199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7150100" y="368300"/>
-          <a:ext cx="4572000" cy="965200"/>
+          <a:ext cx="6502400" cy="2844800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2144,6 +2237,65 @@
             </a:rPr>
             <a:t>Ici j'ai pris le ratio calculé pour Pn 84Ga et j'ai pris Effn qui conserve ce ratio avec l'efficacité beta de 82Ga</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Pour cette méthode je fit la courbe d'activité des évenements 2 neutrons et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> je fais le calcul P2n=(N2n/Nb)*Ratio*(1/Effn)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1400" baseline="0">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>En prenant la méthode statistique, efficacité beta du 82Ga et efficacité tetra = 0.512, ce qui conserve le ratio, je trouve 2.2% ce qui semble correct.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2279,84 +2431,6 @@
             <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
             <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="ZoneTexte 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD032B7E-B84D-4641-8524-A232729C91AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6819900" y="1701800"/>
-          <a:ext cx="4572000" cy="965200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Le</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> fit pour obtenir N2n est une somme de deux exponentielles.</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4114,7 +4188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376C050-E39F-4E43-B6D2-85F3F9FA265F}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5312,7 +5386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFFCE4E-1904-9441-B800-76A5932E8BAB}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -6679,7 +6753,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6854,8 +6928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A42E313-E47F-404F-9F81-3A86BAAE3BBF}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6894,14 +6968,14 @@
         <v>1.5209999999999999</v>
       </c>
       <c r="B2" s="27">
-        <v>223874</v>
+        <v>223756</v>
       </c>
       <c r="C2" s="27">
         <v>975418</v>
       </c>
       <c r="D2" s="2">
         <f>(B2/C2)*A2*100</f>
-        <v>34.90937772319149</v>
+        <v>34.890977611649568</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18">
@@ -6986,8 +7060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF5F47-D2FE-7143-818C-1205758ECD6B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7020,10 +7094,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2">
-        <v>17345</v>
+        <v>6162</v>
       </c>
       <c r="C2" s="27">
-        <v>961595</v>
+        <v>975418</v>
       </c>
       <c r="D2">
         <v>1.5209999999999999</v>
@@ -7033,7 +7107,7 @@
       </c>
       <c r="F2">
         <f>(D2/E2)*(B2/C2)*100</f>
-        <v>5.3584768746847669</v>
+        <v>1.8766798086820211</v>
       </c>
     </row>
   </sheetData>
@@ -7044,12 +7118,105 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2ED87E-3B64-C24F-AC59-0C835EBF5EDA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="27">
+        <v>771.99599999999998</v>
+      </c>
+      <c r="B3" s="29">
+        <v>888.31399999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="27">
+        <v>383.93599999999998</v>
+      </c>
+      <c r="B4" s="29">
+        <v>383.96199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="27">
+        <v>0.97599599999999997</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.92991699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f>SQRT(2*PI())*A3*A5</f>
+        <v>1888.6566930379788</v>
+      </c>
+      <c r="B7">
+        <f>SQRT(2*PI())*B3*B5</f>
+        <v>2070.6210660519237</v>
+      </c>
+      <c r="D7">
+        <f>A7/B7</f>
+        <v>0.91212087233281247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="27">
+        <v>231.80199999999999</v>
+      </c>
+      <c r="B9" s="29">
+        <v>281.78399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="27">
+        <v>643.24699999999996</v>
+      </c>
+      <c r="B10" s="29">
+        <v>643.19299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="27">
+        <v>0.93245599999999995</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1.00098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f>SQRT(2*PI())*A9*A11</f>
+        <v>541.79558379850221</v>
+      </c>
+      <c r="B13">
+        <f>SQRT(2*PI())*B9*B11</f>
+        <v>707.01994292552558</v>
+      </c>
+      <c r="D13">
+        <f>A13/B13</f>
+        <v>0.76630877137163389</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A53DB-BDFF-7745-A958-97BAF9A4A245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903AB227-8445-F843-849E-E6988ABDAFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
+    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri runs" sheetId="9" r:id="rId1"/>
@@ -872,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -921,6 +921,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="2" xr:uid="{16FDB774-F211-F14E-9453-8C6A1F24C04D}"/>
@@ -2086,15 +2087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2336800</xdr:colOff>
+      <xdr:colOff>2108200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>3302000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2109,8 +2110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2336800" y="2552700"/>
-          <a:ext cx="7442200" cy="2286000"/>
+          <a:off x="2108200" y="2540000"/>
+          <a:ext cx="8229600" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,7 +2148,7 @@
               <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Ici dans mon fit beta je prend en compte la branche</a:t>
+            <a:t>Dans mon fit beta je prend en compte la branche</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1400" baseline="0">
@@ -2155,7 +2156,7 @@
               <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t> 2n</a:t>
+            <a:t> beta-2n aussi.</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1400">
             <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
@@ -2816,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6887EF2-46CF-E446-B33F-5F6D80182EE1}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4188,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376C050-E39F-4E43-B6D2-85F3F9FA265F}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5386,7 +5387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFFCE4E-1904-9441-B800-76A5932E8BAB}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -6635,7 +6636,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6726,12 +6727,18 @@
     <row r="16" spans="1:4">
       <c r="A16" s="40"/>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="27"/>
+    </row>
     <row r="18" spans="1:3">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="29"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="44"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="31"/>
@@ -6926,10 +6933,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A42E313-E47F-404F-9F81-3A86BAAE3BBF}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6968,14 +6975,14 @@
         <v>1.5209999999999999</v>
       </c>
       <c r="B2" s="27">
-        <v>223756</v>
+        <v>218252</v>
       </c>
       <c r="C2" s="27">
-        <v>975418</v>
+        <v>949000</v>
       </c>
       <c r="D2" s="2">
         <f>(B2/C2)*A2*100</f>
-        <v>34.890977611649568</v>
+        <v>34.980115068493149</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18">
@@ -7047,8 +7054,11 @@
       <c r="B12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="4:4" ht="18">
+    <row r="17" spans="3:4" ht="18">
       <c r="D17" s="3"/>
+    </row>
+    <row r="24" spans="3:4" ht="18">
+      <c r="C24" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7060,8 +7070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF5F47-D2FE-7143-818C-1205758ECD6B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7097,7 +7107,7 @@
         <v>6162</v>
       </c>
       <c r="C2" s="27">
-        <v>975418</v>
+        <v>949000</v>
       </c>
       <c r="D2">
         <v>1.5209999999999999</v>
@@ -7107,7 +7117,7 @@
       </c>
       <c r="F2">
         <f>(D2/E2)*(B2/C2)*100</f>
-        <v>1.8766798086820211</v>
+        <v>1.9289223030821916</v>
       </c>
     </row>
   </sheetData>

--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903AB227-8445-F843-849E-E6988ABDAFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918B913A-997D-FA4A-AD0C-04C5CB0F57BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
+    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri runs" sheetId="9" r:id="rId1"/>
@@ -18,17 +18,18 @@
     <sheet name="Eff 82Ga" sheetId="5" r:id="rId3"/>
     <sheet name="Pn 82Ga" sheetId="16" r:id="rId4"/>
     <sheet name="Eff 84Ga" sheetId="15" r:id="rId5"/>
-    <sheet name="Pn 84Ga" sheetId="14" r:id="rId6"/>
-    <sheet name="P2n 84Ga" sheetId="17" r:id="rId7"/>
-    <sheet name="Eff 125Ag" sheetId="18" r:id="rId8"/>
-    <sheet name="Pn 125Ag" sheetId="19" r:id="rId9"/>
-    <sheet name="Calbration RUN58" sheetId="7" r:id="rId10"/>
-    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId11"/>
-    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId12"/>
-    <sheet name="RUN51" sheetId="10" r:id="rId13"/>
-    <sheet name="RUN55" sheetId="13" r:id="rId14"/>
-    <sheet name="RUN56" sheetId="11" r:id="rId15"/>
-    <sheet name="RUN61" sheetId="12" r:id="rId16"/>
+    <sheet name="&lt;n&gt; 84Ga" sheetId="14" r:id="rId6"/>
+    <sheet name="P1n 84Ga" sheetId="20" r:id="rId7"/>
+    <sheet name="P2n 84Ga" sheetId="17" r:id="rId8"/>
+    <sheet name="Eff 125Ag" sheetId="18" r:id="rId9"/>
+    <sheet name="Pn 125Ag" sheetId="19" r:id="rId10"/>
+    <sheet name="Calbration RUN58" sheetId="7" r:id="rId11"/>
+    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId12"/>
+    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId13"/>
+    <sheet name="RUN51" sheetId="10" r:id="rId14"/>
+    <sheet name="RUN55" sheetId="13" r:id="rId15"/>
+    <sheet name="RUN56" sheetId="11" r:id="rId16"/>
+    <sheet name="RUN61" sheetId="12" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="203">
   <si>
     <t>Pn</t>
   </si>
@@ -100,54 +101,12 @@
     <t>Config 1</t>
   </si>
   <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>82Ge</t>
-  </si>
-  <si>
-    <t>82As</t>
-  </si>
-  <si>
-    <t>81Ge</t>
-  </si>
-  <si>
-    <t>82Se</t>
-  </si>
-  <si>
-    <t>e+ / e-</t>
-  </si>
-  <si>
-    <t>81As</t>
-  </si>
-  <si>
-    <t>Moyenne efficacité tetra</t>
-  </si>
-  <si>
-    <t>Incertitude</t>
-  </si>
-  <si>
     <t>Intégrale</t>
   </si>
   <si>
     <t>Valeur</t>
   </si>
   <si>
-    <t>Moyenne efficacité beta</t>
-  </si>
-  <si>
-    <t>Noyeau émetteur</t>
-  </si>
-  <si>
-    <t>Energie littérature (keV)</t>
-  </si>
-  <si>
     <t>Neutron-conditionné</t>
   </si>
   <si>
@@ -202,9 +161,6 @@
     <t>RUN 58</t>
   </si>
   <si>
-    <t>Bande cassée, arret de TETRA.</t>
-  </si>
-  <si>
     <t>0.3-2-1-?</t>
   </si>
   <si>
@@ -595,9 +551,6 @@
     <t>TetraCoinc windows 0-200 us</t>
   </si>
   <si>
-    <t>BetaCoinc window 1.14-1.6 us</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moyenne </t>
   </si>
   <si>
@@ -637,9 +590,6 @@
     <t>Ici je cherche eff beta en me basant sur Pn connu et mesure eff neutron</t>
   </si>
   <si>
-    <t>Les deux valeurs sont bien cohérentes</t>
-  </si>
-  <si>
     <t>Courbe activité beta moche</t>
   </si>
   <si>
@@ -677,17 +627,52 @@
   </si>
   <si>
     <t>eff beta</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Données corrompues</t>
+  </si>
+  <si>
+    <t>BetaCoinc window 1.14-1.59 us</t>
+  </si>
+  <si>
+    <t>Méthode b-n</t>
+  </si>
+  <si>
+    <t>N_b1n</t>
+  </si>
+  <si>
+    <t>N_b</t>
+  </si>
+  <si>
+    <t>Eff_1n</t>
+  </si>
+  <si>
+    <t>P1n</t>
+  </si>
+  <si>
+    <t>AllBut97.root</t>
+  </si>
+  <si>
+    <t>Methode beta-n</t>
+  </si>
+  <si>
+    <t>&lt;n&gt;*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -813,8 +798,14 @@
       <color rgb="FFFF0000"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,6 +848,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -872,7 +875,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -881,12 +884,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -922,6 +920,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="2" xr:uid="{16FDB774-F211-F14E-9453-8C6A1F24C04D}"/>
@@ -1907,16 +1930,118 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>433613</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890EF435-E819-E3AF-A653-FC12932E3CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6948713" y="6948715"/>
+          <a:ext cx="4125687" cy="531585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="1">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Beta-Gamma</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> window : 1.16 - 1.59 us</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Neutron - Gamma windows : 0 - 200 us</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400" b="1">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6096000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>5092700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1931,8 +2056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5956300" y="2844800"/>
-          <a:ext cx="4457700" cy="1016000"/>
+          <a:off x="4940300" y="2133600"/>
+          <a:ext cx="4470400" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1969,32 +2094,8 @@
               <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Avec méthode Dmitry, je trouve 22.6%</a:t>
+            <a:t>Avec méthode Dmitry, je trouve 24%.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>C'est</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> très cohérent.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1400">
-            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2003,27 +2104,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1">
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBC0EF3-34DA-C4CC-1AA3-EF0D2C0EB30D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC477BA0-EB36-C346-2CD7-9399CC8D46A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,8 +2132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6388100" y="1016000"/>
-          <a:ext cx="5270500" cy="825500"/>
+          <a:off x="5168900" y="965200"/>
+          <a:ext cx="7188200" cy="1498600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2069,7 +2170,7 @@
               <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Avec la</a:t>
+            <a:t>Ici ce n'est pas Pn mais bien &lt;n&gt;* = P1n + (1+Effn)*P2n</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1400" baseline="0">
@@ -2077,87 +2178,11 @@
               <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t> méthode de Dmitry/Mathematica je trouve 37.7% mais elle n'est pas vraiment correcte car elle ne prend pas en compte les beta-2n.</a:t>
+            <a:t> (voir démo cahier)</a:t>
           </a:r>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2108200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3302000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ZoneTexte 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F34BF7D-7DB1-E561-0121-C3800DB419BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2108200" y="2540000"/>
-          <a:ext cx="8229600" cy="584200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Dans mon fit beta je prend en compte la branche</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> beta-2n aussi.</a:t>
-          </a:r>
           <a:endParaRPr lang="fr-FR" sz="1400">
             <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
             <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
@@ -2171,7 +2196,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2183,8 +2208,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2200,7 +2225,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7150100" y="368300"/>
-          <a:ext cx="6502400" cy="2844800"/>
+          <a:ext cx="6502400" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2239,200 +2264,6 @@
             <a:t>Ici j'ai pris le ratio calculé pour Pn 84Ga et j'ai pris Effn qui conserve ce ratio avec l'efficacité beta de 82Ga</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1400">
-            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Pour cette méthode je fit la courbe d'activité des évenements 2 neutrons et</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> je fais le calcul P2n=(N2n/Nb)*Ratio*(1/Effn)</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1400">
-            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1400">
-            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1400" baseline="0">
-            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>En prenant la méthode statistique, efficacité beta du 82Ga et efficacité tetra = 0.512, ce qui conserve le ratio, je trouve 2.2% ce qui semble correct.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1400">
-            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ZoneTexte 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE43851-F7E3-484B-87FA-6F66B50D80AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1168400" y="2882900"/>
-          <a:ext cx="5791200" cy="1600200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Avec méthode beta-n de BELEN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> je trouve </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>P1n = 66.9% et P2n = 1.22%</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1400" baseline="0">
-            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>P1n est aberrant mais P2n est correct.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1400">
-            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Cette méthode doit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> être corrigé par l'efficacité du detecteur beta qui ne peut pas être moyennée.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1400">
-            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2440,7 +2271,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2817,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6887EF2-46CF-E446-B33F-5F6D80182EE1}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2832,47 +2663,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="42">
+      <c r="A1" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="37">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="5" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="32" t="s">
-        <v>167</v>
+      <c r="B3" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3">
         <v>37</v>
@@ -2880,10 +2711,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3">
         <v>48</v>
@@ -2894,52 +2725,52 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C6" s="3">
         <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C8" s="3">
         <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B9" s="3">
         <v>28</v>
@@ -2953,26 +2784,26 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3">
         <v>42</v>
@@ -2980,7 +2811,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3">
         <v>43</v>
@@ -2988,7 +2819,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3">
         <v>44</v>
@@ -2996,15 +2827,15 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C17" s="3">
         <v>52</v>
@@ -3012,32 +2843,32 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C18" s="3">
         <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C19" s="3">
         <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3045,43 +2876,43 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3">
         <v>19</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E25" s="3">
         <v>139</v>
@@ -3089,27 +2920,27 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B26" s="3">
         <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3117,7 +2948,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D29" s="3">
         <v>79</v>
@@ -3125,7 +2956,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D30" s="3">
         <v>83</v>
@@ -3133,15 +2964,15 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3">
         <v>142</v>
@@ -3149,7 +2980,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E34" s="3">
         <v>144</v>
@@ -3161,6 +2992,63 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEDDCAB-2D63-E741-858D-EABD32ED0100}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="36">
+        <v>1241480</v>
+      </c>
+      <c r="B2" s="22">
+        <v>16208.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="25">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C5" s="25">
+        <f>(B2/A2)*(A5/B5)*100</f>
+        <v>1.7595841351537898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B76971B-B785-D444-906E-B14BE718062E}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -3177,28 +3065,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="19" t="s">
-        <v>49</v>
+      <c r="A1" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="E3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="18"/>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="13"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="G5" s="16"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:8">
       <c r="E6" s="1">
@@ -3207,7 +3095,7 @@
       <c r="F6" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>537.65</v>
       </c>
     </row>
@@ -3218,10 +3106,10 @@
       <c r="F7" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>1232</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8">
       <c r="E8" s="1">
@@ -3230,10 +3118,10 @@
       <c r="F8" s="1">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <v>1794</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8">
       <c r="E9" s="1">
@@ -3242,7 +3130,7 @@
       <c r="F9" s="1">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <v>2172</v>
       </c>
     </row>
@@ -3253,7 +3141,7 @@
       <c r="F10" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>2358</v>
       </c>
     </row>
@@ -3264,10 +3152,10 @@
       <c r="F11" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="11">
         <v>4249.8</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
       <c r="E12" s="1">
@@ -3276,10 +3164,10 @@
       <c r="F12" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="11">
         <v>4749</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8">
       <c r="E13" s="1">
@@ -3288,10 +3176,10 @@
       <c r="F13" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="11">
         <v>5296</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8">
       <c r="E14" s="1">
@@ -3300,7 +3188,7 @@
       <c r="F14" s="1">
         <v>0.01</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="11">
         <v>5983.6</v>
       </c>
     </row>
@@ -3311,7 +3199,7 @@
       <c r="F15" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="11">
         <v>6005.5</v>
       </c>
     </row>
@@ -3322,10 +3210,10 @@
       <c r="F16" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="11">
         <v>6132.08</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8">
       <c r="E17" s="1">
@@ -3334,24 +3222,24 @@
       <c r="F17" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="11">
         <v>7804.35</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="21">
-      <c r="A20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="16">
+      <c r="A20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="11">
         <v>0.17701043557000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21">
-      <c r="A21" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="16">
+      <c r="A21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="11">
         <v>26.646713013999999</v>
       </c>
     </row>
@@ -3362,7 +3250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A7681-1608-124E-8520-29226F63BDFF}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -3579,7 +3467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BAEB1E-CF2C-6A4E-B6C2-6EA04F34FC3D}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -3598,27 +3486,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
-      <c r="C1" s="15" t="s">
-        <v>43</v>
+      <c r="C1" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18">
       <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="9">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8">
         <v>1467.21</v>
       </c>
       <c r="E4" s="1">
@@ -3641,12 +3529,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18">
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>711.02300000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18">
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1.13541</v>
       </c>
     </row>
@@ -3658,7 +3546,7 @@
     </row>
     <row r="9" spans="1:11" ht="18">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6">
         <v>780.23099999999999</v>
@@ -3710,13 +3598,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="18">
-      <c r="C19" s="14" t="s">
-        <v>37</v>
+      <c r="C19" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6">
         <v>4558.08</v>
@@ -3767,7 +3655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7680E834-25BF-554B-A055-DB729B0B172B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3782,10 +3670,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3880,7 +3768,7 @@
     </row>
     <row r="16" spans="1:5" ht="18">
       <c r="A16" s="6" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B16" s="6">
         <v>500.28899999999999</v>
@@ -3951,7 +3839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB024FC4-B85F-3448-8E2A-E4C44EA629AC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3966,10 +3854,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
@@ -3982,7 +3870,7 @@
     </row>
     <row r="4" spans="1:3" ht="18">
       <c r="A4" s="6" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B4" s="6">
         <v>263.505</v>
@@ -4015,7 +3903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B3A609-792A-7642-9CAD-67077A136A92}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4030,10 +3918,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
@@ -4117,7 +4005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFF8B5B-F9EE-F84C-8391-8E968454A576}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -4133,10 +4021,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
@@ -4149,7 +4037,7 @@
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B4" s="7">
         <v>263.589</v>
@@ -4164,11 +4052,11 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="16">
+      <c r="A7" s="11">
         <f>SQRT(2*PI())*A3*A5</f>
         <v>596.24237137926013</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="11">
         <f>SQRT(2*PI())*B3*B5</f>
         <v>667.11876019307033</v>
       </c>
@@ -4189,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376C050-E39F-4E43-B6D2-85F3F9FA265F}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4206,62 +4094,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="39" t="s">
-        <v>111</v>
+      <c r="A1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="34" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="39" t="s">
-        <v>110</v>
+      <c r="E2" s="34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
-      <c r="G3" s="23"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="G4" s="22"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="33">
+      <c r="A6" s="28">
         <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="20"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
@@ -4270,7 +4158,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4282,7 +4170,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4294,10 +4182,10 @@
         <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3">
         <v>9</v>
@@ -4310,16 +4198,16 @@
         <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18">
@@ -4328,10 +4216,10 @@
         <v>63</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
@@ -4339,111 +4227,111 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="34">
+      <c r="A12" s="29">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
-      <c r="A13" s="34">
+      <c r="A13" s="29">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
-      <c r="A14" s="35">
+      <c r="A14" s="30">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18">
-      <c r="A15" s="34">
+      <c r="A15" s="29">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18">
-      <c r="A16" s="35">
+      <c r="A16" s="30">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3">
         <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18">
-      <c r="A17" s="34">
+      <c r="A17" s="29">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3">
         <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18">
@@ -4452,132 +4340,132 @@
         <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="35">
+      <c r="A19" s="30">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18">
-      <c r="A20" s="36">
+      <c r="A20" s="31">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3">
         <v>6.5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18">
-      <c r="A21" s="35">
+      <c r="A21" s="30">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
-      <c r="A22" s="35">
+      <c r="A22" s="30">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18">
-      <c r="A23" s="35">
+      <c r="A23" s="30">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3">
         <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18">
-      <c r="A24" s="35">
+      <c r="A24" s="30">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3">
         <v>7</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18">
-      <c r="A25" s="35">
+      <c r="A25" s="30">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3">
         <v>7</v>
@@ -4585,21 +4473,21 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="18">
-      <c r="A26" s="36">
+      <c r="A26" s="31">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3">
         <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18">
@@ -4608,16 +4496,16 @@
         <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18">
@@ -4631,7 +4519,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18">
@@ -4645,7 +4533,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18">
@@ -4654,16 +4542,16 @@
         <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D30" s="3">
         <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18">
@@ -4672,52 +4560,52 @@
         <v>83</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D31" s="3">
         <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18">
-      <c r="A32" s="36">
+      <c r="A32" s="31">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3">
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18">
-      <c r="A33" s="36">
+      <c r="A33" s="31">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D33" s="3">
         <v>9.5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18">
@@ -4729,7 +4617,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18">
@@ -4738,10 +4626,10 @@
         <v>87</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D35" s="3">
         <v>8</v>
@@ -4754,10 +4642,10 @@
         <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D36" s="3">
         <v>9</v>
@@ -4770,16 +4658,16 @@
         <v>89</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D37" s="3">
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18">
@@ -4788,16 +4676,16 @@
         <v>90</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D38" s="3">
         <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18">
@@ -4806,10 +4694,10 @@
         <v>91</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3">
         <v>9</v>
@@ -4817,33 +4705,33 @@
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="18">
-      <c r="A40" s="35">
+      <c r="A40" s="30">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3">
         <v>6.5</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18">
-      <c r="A41" s="35">
+      <c r="A41" s="30">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3">
         <v>6.5</v>
@@ -4851,15 +4739,15 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="18">
-      <c r="A42" s="35">
+      <c r="A42" s="30">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D42" s="3">
         <v>10</v>
@@ -4867,33 +4755,33 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="18">
-      <c r="A43" s="36">
+      <c r="A43" s="31">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D43" s="3">
         <v>9.5</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18">
-      <c r="A44" s="35">
+      <c r="A44" s="30">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D44" s="3">
         <v>9.5</v>
@@ -4901,33 +4789,33 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="18">
-      <c r="A45" s="36">
+      <c r="A45" s="31">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18">
-      <c r="A46" s="35">
+      <c r="A46" s="30">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D46" s="3">
         <v>9</v>
@@ -4935,15 +4823,15 @@
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="18">
-      <c r="A47" s="35">
+      <c r="A47" s="30">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D47" s="3">
         <v>9</v>
@@ -4951,15 +4839,15 @@
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="18">
-      <c r="A48" s="35">
+      <c r="A48" s="30">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D48" s="3">
         <v>9</v>
@@ -4967,15 +4855,15 @@
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="18">
-      <c r="A49" s="35">
+      <c r="A49" s="30">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D49" s="3">
         <v>10</v>
@@ -4983,15 +4871,15 @@
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="18">
-      <c r="A50" s="35">
+      <c r="A50" s="30">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D50" s="3">
         <v>10</v>
@@ -4999,33 +4887,33 @@
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="18">
-      <c r="A51" s="35">
+      <c r="A51" s="30">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D51" s="3">
         <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18">
-      <c r="A52" s="35">
+      <c r="A52" s="30">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D52" s="3">
         <v>10</v>
@@ -5033,33 +4921,33 @@
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="18">
-      <c r="A53" s="35">
+      <c r="A53" s="30">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D53" s="3">
         <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18">
-      <c r="A54" s="35">
+      <c r="A54" s="30">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D54" s="3">
         <v>10</v>
@@ -5067,15 +4955,15 @@
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="18">
-      <c r="A55" s="35">
+      <c r="A55" s="30">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D55" s="3">
         <v>10</v>
@@ -5083,51 +4971,51 @@
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="18">
-      <c r="A56" s="36">
+      <c r="A56" s="31">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D56" s="3">
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18">
-      <c r="A57" s="35">
+      <c r="A57" s="30">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D57" s="3">
         <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18">
-      <c r="A58" s="35">
+      <c r="A58" s="30">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D58" s="3">
         <v>10</v>
@@ -5135,15 +5023,15 @@
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="18">
-      <c r="A59" s="35">
+      <c r="A59" s="30">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D59" s="3">
         <v>10</v>
@@ -5151,15 +5039,15 @@
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="18">
-      <c r="A60" s="35">
+      <c r="A60" s="30">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D60" s="3">
         <v>10</v>
@@ -5167,15 +5055,15 @@
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="18">
-      <c r="A61" s="35">
+      <c r="A61" s="30">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D61" s="3">
         <v>10</v>
@@ -5183,15 +5071,15 @@
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="18">
-      <c r="A62" s="35">
+      <c r="A62" s="30">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D62" s="3">
         <v>10</v>
@@ -5199,15 +5087,15 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="18">
-      <c r="A63" s="35">
+      <c r="A63" s="30">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D63" s="3">
         <v>10</v>
@@ -5215,15 +5103,15 @@
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="18">
-      <c r="A64" s="35">
+      <c r="A64" s="30">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D64" s="3">
         <v>10</v>
@@ -5231,15 +5119,15 @@
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="18">
-      <c r="A65" s="35">
+      <c r="A65" s="30">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D65" s="3">
         <v>9</v>
@@ -5247,15 +5135,15 @@
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="18">
-      <c r="A66" s="35">
+      <c r="A66" s="30">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D66" s="3">
         <v>10</v>
@@ -5263,15 +5151,15 @@
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="18">
-      <c r="A67" s="35">
+      <c r="A67" s="30">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D67" s="3">
         <v>10</v>
@@ -5284,28 +5172,28 @@
         <v>120</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18">
-      <c r="A69" s="38">
+      <c r="A69" s="33">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="D69" s="3">
         <v>10</v>
@@ -5313,15 +5201,15 @@
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="18">
-      <c r="A70" s="35">
+      <c r="A70" s="30">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D70" s="3">
         <v>10</v>
@@ -5329,15 +5217,15 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="18">
-      <c r="A71" s="35">
+      <c r="A71" s="30">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D71" s="3">
         <v>10</v>
@@ -5345,15 +5233,15 @@
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="18">
-      <c r="A72" s="35">
+      <c r="A72" s="30">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D72" s="3">
         <v>10</v>
@@ -5361,21 +5249,21 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="18">
-      <c r="A73" s="36">
+      <c r="A73" s="31">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="D73" s="3">
         <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5385,1249 +5273,561 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFFCE4E-1904-9441-B800-76A5932E8BAB}">
-  <dimension ref="A1:AC88"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="29.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="3"/>
-    <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="25.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="18.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17.625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="26.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.625" style="3"/>
-    <col min="24" max="24" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.625" style="3"/>
-    <col min="27" max="27" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.625" style="3"/>
+    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2"/>
+    <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="25.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.625" style="2"/>
+    <col min="24" max="24" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.625" style="2"/>
+    <col min="27" max="27" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26">
-      <c r="A1" s="13" t="s">
-        <v>35</v>
+      <c r="A1" s="40" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="D2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="N2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="F4" s="11"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="A5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+      <c r="F5" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="3">
-        <v>92.6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1070.8599999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <f>(SQRT(2*PI())*D6*D8)</f>
-        <v>2541.7680727639372</v>
-      </c>
-      <c r="F6" s="2">
-        <f>SQRT(E6)</f>
-        <v>50.41595057879934</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="L6" s="3">
-        <f>(K14+K34+K42+K50+K58)/5</f>
-        <v>77.907891596011268</v>
-      </c>
-      <c r="R6" s="3">
-        <f>(Q14+Q34+Q42)/3</f>
-        <v>57.446499102585371</v>
-      </c>
-      <c r="T6" s="3">
-        <f>L6/R6</f>
-        <v>1.356181713647804</v>
-      </c>
+      <c r="A6" s="45"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="9">
-        <v>93.230699999999999</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="46">
+        <v>1058.01</v>
+      </c>
+      <c r="B7" s="43">
+        <f>(SQRT(2*PI())*A7*A9)</f>
+        <v>2669.2495060400115</v>
+      </c>
+      <c r="C7" s="50">
+        <v>738.24199999999996</v>
+      </c>
+      <c r="D7" s="48">
+        <f>(SQRT(2*PI())*C7*C9)</f>
+        <v>1782.2907549596653</v>
+      </c>
+      <c r="E7" s="48">
+        <f>(D7/B7)*100</f>
+        <v>66.771231049277162</v>
+      </c>
+      <c r="F7" s="54">
+        <v>561.51599999999996</v>
+      </c>
+      <c r="G7" s="52">
+        <f>(SQRT(2*PI())*F7*F9)</f>
+        <v>1374.1158478273721</v>
+      </c>
+      <c r="H7" s="52">
+        <f>(G7/B7)*100</f>
+        <v>51.479483080094433</v>
+      </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.94691999999999998</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="46">
+        <v>216.70099999999999</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="50">
+        <v>216.60900000000001</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="54">
+        <v>216.63300000000001</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="46">
+        <v>1.0064900000000001</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="50">
+        <v>0.96314100000000002</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="54">
+        <v>0.97627299999999995</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="3">
-        <v>197.3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9">
-        <v>427.30200000000002</v>
-      </c>
-      <c r="E10" s="2">
-        <f>(SQRT(2*PI())*D10*D12)</f>
-        <v>1056.5301278517641</v>
-      </c>
-      <c r="F10" s="2">
-        <f>SQRT(E10)</f>
-        <v>32.504309373554825</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="9">
-        <v>197.566</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="46">
+        <v>245.422</v>
+      </c>
+      <c r="B11" s="43">
+        <f>(SQRT(2*PI())*A11*A13)</f>
+        <v>715.24718371007555</v>
+      </c>
+      <c r="C11" s="50">
+        <v>175.57300000000001</v>
+      </c>
+      <c r="D11" s="48">
+        <f>(SQRT(2*PI())*C11*C13)</f>
+        <v>535.77757091808212</v>
+      </c>
+      <c r="E11" s="48">
+        <f>(D11/B11)*100</f>
+        <v>74.908029436612054</v>
+      </c>
+      <c r="F11" s="54">
+        <v>151.24</v>
+      </c>
+      <c r="G11" s="52">
+        <f>(SQRT(2*PI())*F11*F13)</f>
+        <v>397.41310908551833</v>
+      </c>
+      <c r="H11" s="52">
+        <f>(G11/B11)*100</f>
+        <v>55.563044236551541</v>
+      </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.98640899999999998</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="46">
+        <v>530.25</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="50">
+        <v>530.38</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="54">
+        <v>530.279</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="46">
+        <v>1.16266</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="50">
+        <v>1.2174100000000001</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="54">
+        <v>1.0483</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="10">
-        <v>216.47</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="27">
-        <v>1010.46</v>
-      </c>
-      <c r="E14" s="2">
-        <f>(SQRT(2*PI())*D14*D16)</f>
-        <v>2553.4396574235393</v>
-      </c>
-      <c r="F14" s="2">
-        <f>SQRT(E14)</f>
-        <v>50.531570898038972</v>
-      </c>
-      <c r="H14" s="28">
-        <v>756.72900000000004</v>
-      </c>
-      <c r="I14" s="2">
-        <f>(SQRT(2*PI())*H14*H16)</f>
-        <v>1820.3331281714709</v>
-      </c>
-      <c r="J14" s="3">
-        <f>SQRT(I14)</f>
-        <v>42.665362159150497</v>
-      </c>
-      <c r="K14" s="3">
-        <f>(I14/E14)*100</f>
-        <v>71.28945157874675</v>
-      </c>
-      <c r="N14" s="28">
-        <v>568.65499999999997</v>
-      </c>
-      <c r="O14" s="3">
-        <f>(SQRT(2*PI())*N14*N16)</f>
-        <v>1362.3695155427004</v>
-      </c>
-      <c r="P14" s="3">
-        <f>SQRT(O14)</f>
-        <v>36.910290103746142</v>
-      </c>
-      <c r="Q14" s="3">
-        <f>(O14/E14)*100</f>
-        <v>53.35428670036999</v>
-      </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="27">
-        <v>216.726</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="28">
-        <v>216.625</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="N15" s="28">
-        <v>216.642</v>
-      </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
+      <c r="A15" s="46">
+        <v>987.40499999999997</v>
+      </c>
+      <c r="B15" s="43">
+        <f>(SQRT(2*PI())*A15*A17)</f>
+        <v>2595.0233184316107</v>
+      </c>
+      <c r="C15" s="50">
+        <v>684.86599999999999</v>
+      </c>
+      <c r="D15" s="48">
+        <f>(SQRT(2*PI())*C15*C17)</f>
+        <v>1849.9207475762689</v>
+      </c>
+      <c r="E15" s="48">
+        <f t="shared" ref="E15" si="0">(D15/B15)*100</f>
+        <v>71.287249499335161</v>
+      </c>
+      <c r="F15" s="54">
+        <v>525.327</v>
+      </c>
+      <c r="G15" s="52">
+        <f>(SQRT(2*PI())*F15*F17)</f>
+        <v>1441.0000415637455</v>
+      </c>
+      <c r="H15" s="52">
+        <f>(G15/B15)*100</f>
+        <v>55.529367745129242</v>
+      </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="27">
-        <v>1.00813</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="28">
-        <v>0.95966700000000005</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="N16" s="28">
-        <v>0.95577599999999996</v>
-      </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="V17" s="8"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="3">
-        <v>249.1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9">
-        <v>354.14499999999998</v>
-      </c>
-      <c r="E18" s="2">
-        <f>(SQRT(2*PI())*D18*D20)</f>
-        <v>731.99224341715387</v>
-      </c>
-      <c r="F18" s="2">
-        <f>SQRT(E18)</f>
-        <v>27.05535517078188</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="V18" s="8"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="9">
-        <v>249.15</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="V19" s="8"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.82458500000000001</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="V20" s="8"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="C21" s="5"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="V21" s="8"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="3">
-        <v>290.35000000000002</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9">
-        <v>214.339</v>
-      </c>
-      <c r="E22" s="2">
-        <f>(SQRT(2*PI())*D22*D24)</f>
-        <v>387.28924308431141</v>
-      </c>
-      <c r="F22" s="2">
-        <f>SQRT(E22)</f>
-        <v>19.679665725929173</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="V22" s="8"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="9">
-        <v>290.39400000000001</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="V23" s="8"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.72084899999999996</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="V24" s="8"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="C25" s="5"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="V25" s="8"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="3">
-        <v>335.98</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="9">
-        <v>628.50300000000004</v>
-      </c>
-      <c r="E26" s="2">
-        <f>(SQRT(2*PI())*D26*D28)</f>
-        <v>1567.7085421471761</v>
-      </c>
-      <c r="F26" s="2">
-        <f>SQRT(E26)</f>
-        <v>39.594299364266774</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="V26" s="8"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="C27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="9">
-        <v>336.15699999999998</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="V27" s="8"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="C28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0.99510299999999996</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="V28" s="8"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="C29" s="5"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="V29" s="8"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="3">
-        <v>511</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="9">
-        <v>595.78499999999997</v>
-      </c>
-      <c r="E30" s="2">
-        <f>(SQRT(2*PI())*D30*D32)</f>
-        <v>1957.2800808785764</v>
-      </c>
-      <c r="F30" s="2">
-        <f>SQRT(E30)</f>
-        <v>44.241158222616377</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="V30" s="8"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="C31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="9">
-        <v>511.14699999999999</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="V31" s="8"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="C32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1.3106100000000001</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="V32" s="8"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="V33" s="8"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="10">
-        <v>530.22</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="27">
-        <v>230.66</v>
-      </c>
-      <c r="E34" s="2">
-        <f>(SQRT(2*PI())*D34*D36)</f>
-        <v>652.4979907821903</v>
-      </c>
-      <c r="F34" s="2">
-        <f>SQRT(E34)</f>
-        <v>25.544040220415216</v>
-      </c>
-      <c r="H34" s="28">
-        <v>174.85599999999999</v>
-      </c>
-      <c r="I34" s="2">
-        <f>(SQRT(2*PI())*H34*H36)</f>
-        <v>533.2345556002291</v>
-      </c>
-      <c r="J34" s="3">
-        <f>SQRT(I34)</f>
-        <v>23.091872067899327</v>
-      </c>
-      <c r="K34" s="3">
-        <f>(I34/E34)*100</f>
-        <v>81.722022616653177</v>
-      </c>
-      <c r="N34" s="28">
-        <v>151.13499999999999</v>
-      </c>
-      <c r="O34" s="3">
-        <f>(SQRT(2*PI())*N34*N36)</f>
-        <v>407.67650908383359</v>
-      </c>
-      <c r="P34" s="3">
-        <f>SQRT(O34)</f>
-        <v>20.191000695454239</v>
-      </c>
-      <c r="Q34" s="3">
-        <f>(O34/E34)*100</f>
-        <v>62.479350870510139</v>
-      </c>
-      <c r="T34" s="3">
-        <f>I34/O34</f>
-        <v>1.3079845017280014</v>
-      </c>
-      <c r="V34" s="8"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="C35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="27">
-        <v>530.22900000000004</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="H35" s="28">
-        <v>530.35500000000002</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="N35" s="28">
-        <v>530.27200000000005</v>
-      </c>
-      <c r="V35" s="8"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="C36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="27">
-        <v>1.1285400000000001</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="H36" s="28">
-        <v>1.2165999999999999</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="N36" s="28">
-        <v>1.07612</v>
-      </c>
-      <c r="V36" s="8"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="C37" s="5"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="V37" s="8"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="3">
-        <v>654.70000000000005</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="9">
-        <v>681.89099999999996</v>
-      </c>
-      <c r="E38" s="2">
-        <f>(SQRT(2*PI())*D38*D40)</f>
-        <v>1733.7578665365147</v>
-      </c>
-      <c r="F38" s="2">
-        <f>SQRT(E38)</f>
-        <v>41.638418156031271</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="V38" s="8"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="C39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="9">
-        <v>654.95600000000002</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="V39" s="8"/>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="C40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1.01434</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="V40" s="8"/>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="C41" s="5"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="V41" s="8"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="10">
-        <v>711.19</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="28">
-        <v>962.09100000000001</v>
-      </c>
-      <c r="E42" s="2">
-        <f>(SQRT(2*PI())*D42*D44)</f>
-        <v>2546.9678641420605</v>
-      </c>
-      <c r="F42" s="2">
-        <f>SQRT(E42)</f>
-        <v>50.467493143032776</v>
-      </c>
-      <c r="H42" s="28">
-        <v>692.71900000000005</v>
-      </c>
-      <c r="I42" s="2">
-        <f>(SQRT(2*PI())*H42*H44)</f>
-        <v>1846.2330019241426</v>
-      </c>
-      <c r="J42" s="3">
-        <f>SQRT(I42)</f>
-        <v>42.967813557640362</v>
-      </c>
-      <c r="K42" s="3">
-        <f>(I42/E42)*100</f>
-        <v>72.487487098548115</v>
-      </c>
-      <c r="N42" s="28">
-        <v>526.95299999999997</v>
-      </c>
-      <c r="O42" s="3">
-        <f>(SQRT(2*PI())*N42*N44)</f>
-        <v>1439.1860888554193</v>
-      </c>
-      <c r="P42" s="3">
-        <f>SQRT(O42)</f>
-        <v>37.936606185258839</v>
-      </c>
-      <c r="Q42" s="3">
-        <f>(O42/E42)*100</f>
-        <v>56.505859736876005</v>
-      </c>
-      <c r="T42" s="3">
-        <f>I42/O42</f>
-        <v>1.2828313282213883</v>
-      </c>
-      <c r="V42" s="8"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="C43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="28">
-        <v>711.375</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="H43" s="28">
+      <c r="A16" s="46">
+        <v>711.36199999999997</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="50">
+        <v>711.38099999999997</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="54">
         <v>711.38599999999997</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="N43" s="28">
-        <v>711.38099999999997</v>
-      </c>
-      <c r="V43" s="8"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="C44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="28">
-        <v>1.05613</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="H44" s="28">
-        <v>1.0632600000000001</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="N44" s="28">
-        <v>1.0895699999999999</v>
-      </c>
-      <c r="V44" s="8"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="C45" s="5"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="V45" s="8"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="3">
-        <v>843.4</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="9">
-        <v>287.95100000000002</v>
-      </c>
-      <c r="E46" s="2">
-        <f>(SQRT(2*PI())*D46*D48)</f>
-        <v>787.73571593809788</v>
-      </c>
-      <c r="F46" s="2">
-        <f>SQRT(E46)</f>
-        <v>28.066629935531946</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="8"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="C47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="9">
-        <v>843.69899999999996</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="U47" s="7"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="C48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="9">
-        <v>1.09137</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="U48" s="7"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="C49" s="5"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="10">
-        <v>867</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="28">
-        <v>380.20699999999999</v>
-      </c>
-      <c r="E50" s="2">
-        <f>(SQRT(2*PI())*D50*D52)</f>
-        <v>1146.0849159931709</v>
-      </c>
-      <c r="F50" s="2">
-        <f>SQRT(E50)</f>
-        <v>33.853875937522588</v>
-      </c>
-      <c r="H50" s="28">
-        <v>315.56599999999997</v>
-      </c>
-      <c r="I50" s="2">
-        <f>(SQRT(2*PI())*H50*H52)</f>
-        <v>901.06732452193864</v>
-      </c>
-      <c r="J50" s="3">
-        <f>SQRT(I50)</f>
-        <v>30.017783471168197</v>
-      </c>
-      <c r="K50" s="3">
-        <f>(I50/E50)*100</f>
-        <v>78.621340526159386</v>
-      </c>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="C51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="28">
-        <v>867.298</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="H51" s="28">
-        <v>867.22400000000005</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="C52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="28">
-        <v>1.2025600000000001</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="H52" s="28">
-        <v>1.13914</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="C53" s="5"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="3">
-        <v>1092</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="9">
-        <v>2302.5300000000002</v>
-      </c>
-      <c r="E54" s="2">
-        <f>(SQRT(2*PI())*D54*D56)</f>
-        <v>7056.3997389981587</v>
-      </c>
-      <c r="F54" s="2">
-        <f>SQRT(E54)</f>
-        <v>84.002379365099884</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="C55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="9">
-        <v>1092.44</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="C56" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="9">
-        <v>1.22261</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="C57" s="5"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="10">
-        <v>1348.3</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="28">
-        <v>2790.31</v>
-      </c>
-      <c r="E58" s="2">
-        <f>(SQRT(2*PI())*D58*D60)</f>
-        <v>9450.0980026644993</v>
-      </c>
-      <c r="F58" s="2">
-        <f>SQRT(E58)</f>
-        <v>97.211614546125602</v>
-      </c>
-      <c r="H58" s="28">
-        <v>2360.9699999999998</v>
-      </c>
-      <c r="I58" s="2">
-        <f>(SQRT(2*PI())*H58*H60)</f>
-        <v>8072.1939701641977</v>
-      </c>
-      <c r="J58" s="3">
-        <f>SQRT(I58)</f>
-        <v>89.845389253785299</v>
-      </c>
-      <c r="K58" s="3">
-        <f>(I58/E58)*100</f>
-        <v>85.419156159948869</v>
-      </c>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="C59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="28">
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="46">
+        <v>1.04847</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="50">
+        <v>1.0775999999999999</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="54">
+        <v>1.09432</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="46">
+        <v>406.65600000000001</v>
+      </c>
+      <c r="B19" s="43">
+        <f>(SQRT(2*PI())*A19*A21)</f>
+        <v>1191.5725348580847</v>
+      </c>
+      <c r="C19" s="50">
+        <v>322.78899999999999</v>
+      </c>
+      <c r="D19" s="48">
+        <f>(SQRT(2*PI())*C19*C21)</f>
+        <v>907.54860421332216</v>
+      </c>
+      <c r="E19" s="48">
+        <f>(D19/B19)*100</f>
+        <v>76.163941150373233</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="46">
+        <v>867.30600000000004</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="50">
+        <v>867.21400000000006</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="46">
+        <v>1.1689700000000001</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="50">
+        <v>1.1216600000000001</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="46">
+        <v>2907.56</v>
+      </c>
+      <c r="B23" s="43">
+        <f>(SQRT(2*PI())*A23*A25)</f>
+        <v>9818.9898700592385</v>
+      </c>
+      <c r="C23" s="50">
+        <v>2356.73</v>
+      </c>
+      <c r="D23" s="48">
+        <f>(SQRT(2*PI())*C23*C25)</f>
+        <v>7510.3724658742385</v>
+      </c>
+      <c r="E23" s="48">
+        <f>(D23/B23)*100</f>
+        <v>76.488239271693317</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="46">
         <v>1348.5</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="H59" s="28">
-        <v>1348.48</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="C60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="28">
-        <v>1.3511200000000001</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="H60" s="28">
-        <v>1.36399</v>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="C61" s="5"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="C62" s="5"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="2"/>
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="C63" s="5"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="C64" s="5"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="3:13">
-      <c r="C65" s="5"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="3:13">
-      <c r="C66" s="5"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="3:13">
-      <c r="C67" s="5"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="8"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="2"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="3:13">
-      <c r="C68" s="5"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="3:13">
-      <c r="D69" s="2"/>
-      <c r="G69" s="8"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="3:13">
-      <c r="D70" s="2"/>
-      <c r="E70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="3:13">
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="3:13">
-      <c r="M72" s="2"/>
-    </row>
-    <row r="75" spans="3:13">
-      <c r="D75" s="2"/>
-      <c r="E75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="K75" s="8"/>
-    </row>
-    <row r="76" spans="3:13">
-      <c r="D76" s="2"/>
-      <c r="E76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="K76" s="8"/>
-    </row>
-    <row r="88" spans="18:18">
-      <c r="R88" s="8"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="50">
+        <v>1348.47</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="46">
+        <v>1.3472500000000001</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="50">
+        <v>1.2713399999999999</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="57">
+        <f>(E7+E11+E15+E19+E23)/5</f>
+        <v>73.123738081458185</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="58">
+        <f>(H7+H11+H15)/3</f>
+        <v>54.19063168725841</v>
+      </c>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="G29" s="41"/>
+      <c r="I29" s="63"/>
+    </row>
+    <row r="33" spans="3:21">
+      <c r="C33" s="41"/>
+    </row>
+    <row r="37" spans="3:21">
+      <c r="C37" s="41"/>
+    </row>
+    <row r="38" spans="3:21">
+      <c r="C38" s="41"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="3:21">
+      <c r="C39" s="41"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="3:21">
+      <c r="C40" s="41"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="3:21">
+      <c r="C41" s="41"/>
+    </row>
+    <row r="46" spans="3:21">
+      <c r="U46" s="8"/>
+    </row>
+    <row r="47" spans="3:21">
+      <c r="U47" s="8"/>
+    </row>
+    <row r="48" spans="3:21">
+      <c r="U48" s="8"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="41"/>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" s="41"/>
+      <c r="D62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="41"/>
+      <c r="D63" s="8"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="41"/>
+      <c r="D64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="41"/>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="41"/>
+      <c r="D66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67" s="41"/>
+      <c r="D67" s="8"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="41"/>
+      <c r="D68" s="8"/>
+      <c r="H68" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6635,119 +5835,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC6309-A58B-6542-A774-57FD4F318D67}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="84" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>105</v>
+      <c r="A1" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="28">
-        <v>3637610</v>
-      </c>
-      <c r="B2" s="27">
-        <v>609500</v>
-      </c>
+      <c r="A2" s="61">
+        <v>3791110</v>
+      </c>
+      <c r="B2" s="61">
+        <v>635655</v>
+      </c>
+      <c r="C2" s="59"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>191</v>
+      <c r="A4" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="30">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="B5" s="30">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="A5" s="59">
+        <v>0.73124</v>
+      </c>
+      <c r="B5" s="59">
+        <v>0.54191</v>
+      </c>
+      <c r="C5" s="59">
         <f>(A5/B5)*(B2/A2)*100</f>
-        <v>22.739616710658137</v>
+        <v>22.624961894848962</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>192</v>
+      <c r="A6" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="A7" s="59">
         <v>0.22700000000000001</v>
       </c>
-      <c r="B7">
-        <v>0.57450000000000001</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="59">
+        <v>0.54191</v>
+      </c>
+      <c r="C7" s="59">
         <f>(A7*B7*A2)/B2</f>
-        <v>0.77832022397867118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" t="s">
-        <v>195</v>
-      </c>
+        <v>0.73366523564307684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="40"/>
+      <c r="A16" s="35"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="22"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="44"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="25"/>
+      <c r="C22" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6760,7 +5967,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6775,129 +5982,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="26" t="s">
-        <v>185</v>
+      <c r="A1" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="B2" s="27">
-        <v>692.26199999999994</v>
-      </c>
-      <c r="C2" s="28">
-        <v>403.065</v>
+      <c r="B2" s="23">
+        <v>704.24099999999999</v>
+      </c>
+      <c r="C2" s="23">
+        <v>419.63099999999997</v>
       </c>
       <c r="D2" s="3">
         <f>B5/C5</f>
-        <v>1.5806979752996895</v>
+        <v>1.6177835675840071</v>
       </c>
       <c r="E2" s="3">
         <f>(D2+D7)/2</f>
-        <v>1.5206052533674326</v>
+        <v>1.6109990424331131</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18">
-      <c r="B3" s="27">
-        <v>247.703</v>
-      </c>
-      <c r="C3" s="28">
-        <v>247.73400000000001</v>
+      <c r="B3" s="23">
+        <v>247.69300000000001</v>
+      </c>
+      <c r="C3" s="23">
+        <v>247.75299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18">
-      <c r="B4" s="27">
-        <v>1.01315</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1.10083</v>
+      <c r="B4" s="23">
+        <v>1.01153</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1.0493300000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="B5" s="3">
         <f>SQRT(2*PI())*B2*B4</f>
-        <v>1758.0619547124872</v>
+        <v>1785.6239704981688</v>
       </c>
       <c r="C5" s="3">
         <f>SQRT(2*PI())*C2*C4</f>
-        <v>1112.2061153897353</v>
+        <v>1103.7471305044926</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18">
       <c r="A7" s="7"/>
-      <c r="B7" s="27">
-        <v>119.455</v>
-      </c>
-      <c r="C7" s="28">
-        <v>69.334999999999994</v>
+      <c r="B7" s="23">
+        <v>122.63</v>
+      </c>
+      <c r="C7" s="23">
+        <v>71.771299999999997</v>
       </c>
       <c r="D7" s="3">
         <f>B10/C10</f>
-        <v>1.4605125314351755</v>
+        <v>1.6042145172822191</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18">
       <c r="A8" s="7"/>
-      <c r="B8" s="27">
-        <v>1045.8800000000001</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="23">
+        <v>1045.81</v>
+      </c>
+      <c r="C8" s="23">
         <v>1046.1500000000001</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18">
-      <c r="B9" s="27">
-        <v>1.3514299999999999</v>
-      </c>
-      <c r="C9" s="28">
-        <v>1.59419</v>
+      <c r="B9" s="23">
+        <v>1.45153</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1.546</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18">
       <c r="B10" s="3">
         <f>SQRT(2*PI())*B7*B9</f>
-        <v>404.6577126083431</v>
+        <v>446.18265008383588</v>
       </c>
       <c r="C10" s="3">
         <f>SQRT(2*PI())*C7*C9</f>
-        <v>277.06555328950543</v>
-      </c>
+        <v>278.13153744533895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="25"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="6"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="18">
       <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="18">
-      <c r="B15" s="6"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
     </row>
@@ -6935,8 +6145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A42E313-E47F-404F-9F81-3A86BAAE3BBF}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6953,44 +6163,44 @@
     <col min="10" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>105</v>
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="64" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="3">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="B2" s="27">
-        <v>218252</v>
-      </c>
-      <c r="C2" s="27">
-        <v>949000</v>
-      </c>
-      <c r="D2" s="2">
-        <f>(B2/C2)*A2*100</f>
-        <v>34.980115068493149</v>
+      <c r="B2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="3">
+        <v>1.611</v>
+      </c>
+      <c r="C3" s="22">
+        <v>258102</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1107360</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(C3/D3)*B3*100</f>
+        <v>37.548974317295183</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="3"/>
@@ -7058,7 +6268,7 @@
       <c r="D17" s="3"/>
     </row>
     <row r="24" spans="3:4" ht="18">
-      <c r="C24" s="27"/>
+      <c r="C24" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7067,11 +6277,59 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3E8E8B-B000-CD4E-AF7C-ED2D630E20AD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23">
+        <v>1107360</v>
+      </c>
+      <c r="D2">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="E2">
+        <f>(1/D2)*(B2/C2)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF5F47-D2FE-7143-818C-1205758ECD6B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7080,44 +6338,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>105</v>
+      <c r="A1" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2">
-        <v>6162</v>
-      </c>
-      <c r="C2" s="27">
-        <v>949000</v>
+        <v>30033</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1107360</v>
       </c>
       <c r="D2">
-        <v>1.5209999999999999</v>
+        <v>1.611</v>
       </c>
       <c r="E2">
-        <v>0.51200000000000001</v>
+        <v>0.45390000000000003</v>
       </c>
       <c r="F2">
         <f>(D2/E2)*(B2/C2)*100</f>
-        <v>1.9289223030821916</v>
+        <v>9.6259863583662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="F8" s="55" t="e">
+        <f>(1/(E2*E2))*(B8/C8)*100</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -7126,7 +6394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2ED87E-3B64-C24F-AC59-0C835EBF5EDA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -7141,36 +6409,36 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="27">
+      <c r="A3" s="22">
         <v>771.99599999999998</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="24">
         <v>888.31399999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27">
+      <c r="A4" s="22">
         <v>383.93599999999998</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="24">
         <v>383.96199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27">
+      <c r="A5" s="22">
         <v>0.97599599999999997</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>0.92991699999999999</v>
       </c>
     </row>
@@ -7189,26 +6457,26 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27">
+      <c r="A9" s="22">
         <v>231.80199999999999</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="24">
         <v>281.78399999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27">
+      <c r="A10" s="22">
         <v>643.24699999999996</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="24">
         <v>643.19299999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="27">
+      <c r="A11" s="22">
         <v>0.93245599999999995</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="24">
         <v>1.00098</v>
       </c>
     </row>
@@ -7229,61 +6497,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEDDCAB-2D63-E741-858D-EABD32ED0100}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="41">
-        <v>1241480</v>
-      </c>
-      <c r="B2" s="27">
-        <v>16208.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="30">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="B5" s="30">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="C5" s="30">
-        <f>(B2/A2)*(A5/B5)*100</f>
-        <v>1.7595841351537898</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918B913A-997D-FA4A-AD0C-04C5CB0F57BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932DCF4-D820-4D45-A961-5099685EBD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Eff 82Ga" sheetId="5" r:id="rId3"/>
     <sheet name="Pn 82Ga" sheetId="16" r:id="rId4"/>
     <sheet name="Eff 84Ga" sheetId="15" r:id="rId5"/>
-    <sheet name="&lt;n&gt; 84Ga" sheetId="14" r:id="rId6"/>
+    <sheet name="&lt;n&gt;  84Ga" sheetId="14" r:id="rId6"/>
     <sheet name="P1n 84Ga" sheetId="20" r:id="rId7"/>
     <sheet name="P2n 84Ga" sheetId="17" r:id="rId8"/>
     <sheet name="Eff 125Ag" sheetId="18" r:id="rId9"/>
@@ -6146,7 +6146,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6329,7 +6329,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6361,21 +6361,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2">
-        <v>30033</v>
-      </c>
-      <c r="C2" s="22">
-        <v>1107360</v>
-      </c>
+      <c r="C2" s="22"/>
       <c r="D2">
         <v>1.611</v>
       </c>
       <c r="E2">
         <v>0.45390000000000003</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="e">
         <f>(D2/E2)*(B2/C2)*100</f>
-        <v>9.6259863583662</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932DCF4-D820-4D45-A961-5099685EBD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A30D8-CABF-8A48-9A48-581E39F40342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
+    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri runs" sheetId="9" r:id="rId1"/>
     <sheet name="Tri runs MANIP" sheetId="8" r:id="rId2"/>
     <sheet name="Eff 82Ga" sheetId="5" r:id="rId3"/>
-    <sheet name="Pn 82Ga" sheetId="16" r:id="rId4"/>
-    <sheet name="Eff 84Ga" sheetId="15" r:id="rId5"/>
-    <sheet name="&lt;n&gt;  84Ga" sheetId="14" r:id="rId6"/>
-    <sheet name="P1n 84Ga" sheetId="20" r:id="rId7"/>
-    <sheet name="P2n 84Ga" sheetId="17" r:id="rId8"/>
-    <sheet name="Eff 125Ag" sheetId="18" r:id="rId9"/>
-    <sheet name="Pn 125Ag" sheetId="19" r:id="rId10"/>
-    <sheet name="Calbration RUN58" sheetId="7" r:id="rId11"/>
-    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId12"/>
-    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId13"/>
-    <sheet name="RUN51" sheetId="10" r:id="rId14"/>
-    <sheet name="RUN55" sheetId="13" r:id="rId15"/>
-    <sheet name="RUN56" sheetId="11" r:id="rId16"/>
-    <sheet name="RUN61" sheetId="12" r:id="rId17"/>
+    <sheet name="Etude effb Qb" sheetId="23" r:id="rId4"/>
+    <sheet name="Pn 82Ga" sheetId="16" r:id="rId5"/>
+    <sheet name="Eff 84Ga" sheetId="15" r:id="rId6"/>
+    <sheet name="&lt;n&gt;  84Ga" sheetId="14" r:id="rId7"/>
+    <sheet name="Eff 125Ag" sheetId="18" r:id="rId8"/>
+    <sheet name="Pn 125Ag" sheetId="19" r:id="rId9"/>
+    <sheet name="Rapports d'embranchement 84Ga" sheetId="20" r:id="rId10"/>
+    <sheet name="Calibration Run par Run" sheetId="22" r:id="rId11"/>
+    <sheet name="Efficacité source dans chambre" sheetId="21" r:id="rId12"/>
+    <sheet name="Calbration RUN58" sheetId="7" r:id="rId13"/>
+    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId14"/>
+    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId15"/>
+    <sheet name="RUN51" sheetId="10" r:id="rId16"/>
+    <sheet name="RUN55" sheetId="13" r:id="rId17"/>
+    <sheet name="RUN56" sheetId="11" r:id="rId18"/>
+    <sheet name="RUN61" sheetId="12" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="208">
   <si>
     <t>Pn</t>
   </si>
@@ -596,24 +598,6 @@
     <t>20, 29</t>
   </si>
   <si>
-    <t>Méthode n-n</t>
-  </si>
-  <si>
-    <t>N2n</t>
-  </si>
-  <si>
-    <t>Reff</t>
-  </si>
-  <si>
-    <t>Effn</t>
-  </si>
-  <si>
-    <t>P2n</t>
-  </si>
-  <si>
-    <t>Nb</t>
-  </si>
-  <si>
     <t>Ratio eff beta/neutron</t>
   </si>
   <si>
@@ -638,39 +622,73 @@
     <t>BetaCoinc window 1.14-1.59 us</t>
   </si>
   <si>
-    <t>Méthode b-n</t>
-  </si>
-  <si>
-    <t>N_b1n</t>
-  </si>
-  <si>
-    <t>N_b</t>
-  </si>
-  <si>
-    <t>Eff_1n</t>
-  </si>
-  <si>
-    <t>P1n</t>
-  </si>
-  <si>
     <t>AllBut97.root</t>
   </si>
   <si>
-    <t>Methode beta-n</t>
-  </si>
-  <si>
     <t>&lt;n&gt;*</t>
+  </si>
+  <si>
+    <t>delta t</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>T1/2</t>
+  </si>
+  <si>
+    <t>Ndec</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Aire</t>
+  </si>
+  <si>
+    <t>Taux</t>
+  </si>
+  <si>
+    <t>Nthéo</t>
+  </si>
+  <si>
+    <t>Ndét</t>
+  </si>
+  <si>
+    <t>Energie littérature</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Gaussienne</t>
+  </si>
+  <si>
+    <t>Nobs</t>
+  </si>
+  <si>
+    <t>Ntrue</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>beta-neutron-gamma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -875,7 +893,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -935,16 +953,18 @@
     <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="2" xr:uid="{16FDB774-F211-F14E-9453-8C6A1F24C04D}"/>
@@ -965,6 +985,1021 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration Run par Run'!$A$13:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>306.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>624.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1045.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1454.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration Run par Run'!$B$13:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100.71599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.71799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>307.02499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>624.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1046.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1455.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EEB-904A-AB57-C98B328ACF4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="397643168"/>
+        <c:axId val="397644880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="397643168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397644880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="397644880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397643168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1119159376"/>
+        <c:axId val="1119161104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1119159376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1119161104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1119161104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1119159376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6815112133123579E-2"/>
+          <c:y val="7.63139120095125E-2"/>
+          <c:w val="0.93069679020749707"/>
+          <c:h val="0.8566271873566339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7998829482108091E-2"/>
+                  <c:y val="-0.18022638965610868"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Efficacité source dans chambre'!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>121.7817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244.69749999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>344.27850000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>411.11630000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443.96499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>778.904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>867.37800000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>964.07899999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1112.0740000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1408.0060000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Efficacité source dans chambre'!$B$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5125699847774823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6669352666747448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4461557514026859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1516152559638302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2068796029240123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77087953259847164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64397710990879198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65971899301499148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62400875875056105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4944072814339644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28C0-2F45-9F1F-1D77DA47BE66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1119159376"/>
+        <c:axId val="1119161104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1119159376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1119161104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1119161104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1119159376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1410,7 +2445,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2200,78 +4903,121 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B99CB8-DB0E-B400-7A2E-1497CC3126D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9AA32FA-8253-6B05-83CE-8A646F504CA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7150100" y="368300"/>
-          <a:ext cx="6502400" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Ici j'ai pris le ratio calculé pour Pn 84Ga et j'ai pris Effn qui conserve ce ratio avec l'efficacité beta de 82Ga</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A10496-8FDC-B126-F7ED-98C10D931B12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF197BC6-D4CD-DB75-DADB-31A923B2069F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2860,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2992,55 +5738,208 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEDDCAB-2D63-E741-858D-EABD32ED0100}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E13C828-4E33-9640-BC5E-FFD8A4FD6CFA}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
-        <v>170</v>
-      </c>
+    <row r="1" spans="1:9">
       <c r="B1" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="36">
-        <v>1241480</v>
-      </c>
-      <c r="B2" s="22">
-        <v>16208.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>183</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="65">
+        <f>(68.856*(B5^(-0.676)))/100</f>
+        <v>1.6549686378398976E-2</v>
+      </c>
+      <c r="C2" s="65">
+        <f t="shared" ref="C2" si="0">(68.856*(C5^(-0.676)))/100</f>
+        <v>6.260382576393414E-3</v>
+      </c>
+      <c r="D2" s="65">
+        <f>(68.856*(D5^(-0.676)))/100</f>
+        <v>5.2721317462434848E-3</v>
+      </c>
+      <c r="G2" s="65">
+        <f>(68.856*(G5^(-0.676)))/100</f>
+        <v>1.6550406962355872E-2</v>
+      </c>
+      <c r="H2" s="65">
+        <f>(68.856*(H5^(-0.676)))/100</f>
+        <v>6.2606656731358833E-3</v>
+      </c>
+      <c r="I2" s="65">
+        <f>(68.856*(I5^(-0.676)))/100</f>
+        <v>5.2714715184612989E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="25">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="B5" s="25">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="C5" s="25">
-        <f>(B2/A2)*(A5/B5)*100</f>
-        <v>1.7595841351537898</v>
+        <v>203</v>
+      </c>
+      <c r="B4" s="23">
+        <v>425.55099999999999</v>
+      </c>
+      <c r="C4" s="23">
+        <v>92.220600000000005</v>
+      </c>
+      <c r="D4" s="23">
+        <v>25.5579</v>
+      </c>
+      <c r="G4" s="23">
+        <v>222.64699999999999</v>
+      </c>
+      <c r="H4" s="23">
+        <v>41.212000000000003</v>
+      </c>
+      <c r="I4" s="23">
+        <v>9.6862999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23">
+        <v>248.42500000000001</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1046.49</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1349.31</v>
+      </c>
+      <c r="G5" s="23">
+        <v>248.40899999999999</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1046.42</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1349.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23">
+        <v>1.0161</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1.2176199999999999</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1.42838</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1.00502</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1.3639300000000001</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1.8105500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="26"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="63">
+        <f>SQRT(2*PI())*B4*B6</f>
+        <v>1083.8720094167466</v>
+      </c>
+      <c r="C8">
+        <f>SQRT(2*PI())*C6*C4</f>
+        <v>281.46840404834848</v>
+      </c>
+      <c r="D8">
+        <f>SQRT(2*PI())*D6*D4</f>
+        <v>91.507957404930139</v>
+      </c>
+      <c r="G8" s="39">
+        <f>SQRT(2*PI())*G4*G6</f>
+        <v>560.89489365438635</v>
+      </c>
+      <c r="H8" s="39">
+        <f>SQRT(2*PI())*H4*H6</f>
+        <v>140.89828509387078</v>
+      </c>
+      <c r="I8" s="39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="26"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10">
+        <f>B8/B2</f>
+        <v>65491.996925781066</v>
+      </c>
+      <c r="C10">
+        <f>C8/C2</f>
+        <v>44960.25612072122</v>
+      </c>
+      <c r="D10">
+        <f>D8/D2</f>
+        <v>17356.917810358525</v>
+      </c>
+      <c r="G10">
+        <f>G8/G2</f>
+        <v>33890.096777085273</v>
+      </c>
+      <c r="H10">
+        <f>H8/H2</f>
+        <v>22505.320112916481</v>
+      </c>
+      <c r="I10">
+        <f>I8/I2</f>
+        <v>3035.2056240778616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="26"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="26"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13">
+        <f>C10/B10</f>
+        <v>0.68650000352978269</v>
+      </c>
+      <c r="D13">
+        <f>D10/B10</f>
+        <v>0.26502349332893738</v>
+      </c>
+      <c r="H13">
+        <f>H10/G10</f>
+        <v>0.66406774406538172</v>
+      </c>
+      <c r="I13">
+        <f>I10/H10</f>
+        <v>0.13486613871072492</v>
       </c>
     </row>
   </sheetData>
@@ -3049,11 +5948,691 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F557EAE-683C-2C49-8A3A-5A156BF8F341}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>242</v>
+      </c>
+      <c r="D2" s="23">
+        <v>242.684</v>
+      </c>
+      <c r="E2" s="23">
+        <v>242.26300000000001</v>
+      </c>
+      <c r="F2" s="23">
+        <v>242.874</v>
+      </c>
+      <c r="G2" s="23">
+        <v>242.84</v>
+      </c>
+      <c r="H2" s="63">
+        <v>242.72200000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>247.58</v>
+      </c>
+      <c r="B3" s="22">
+        <v>248.214</v>
+      </c>
+      <c r="C3" s="22">
+        <v>248.12700000000001</v>
+      </c>
+      <c r="D3" s="23">
+        <v>247.846</v>
+      </c>
+      <c r="E3" s="23">
+        <v>248.00299999999999</v>
+      </c>
+      <c r="G3" s="23">
+        <v>247.91800000000001</v>
+      </c>
+      <c r="I3" s="23">
+        <v>247.93700000000001</v>
+      </c>
+      <c r="J3" s="23">
+        <v>247.815</v>
+      </c>
+      <c r="K3" s="23">
+        <v>247.518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>306.51</v>
+      </c>
+      <c r="C4" s="22">
+        <v>306.904</v>
+      </c>
+      <c r="D4" s="23">
+        <v>306.52</v>
+      </c>
+      <c r="E4" s="23">
+        <v>305.59899999999999</v>
+      </c>
+      <c r="F4" s="23">
+        <v>306.84199999999998</v>
+      </c>
+      <c r="G4" s="23">
+        <v>306.55399999999997</v>
+      </c>
+      <c r="H4" s="23">
+        <v>307.15199999999999</v>
+      </c>
+      <c r="I4" s="23">
+        <v>306.68700000000001</v>
+      </c>
+      <c r="J4" s="23">
+        <v>306.82799999999997</v>
+      </c>
+      <c r="K4" s="23">
+        <v>306.70699999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>347</v>
+      </c>
+      <c r="D5" s="22">
+        <v>346.69499999999999</v>
+      </c>
+      <c r="F5" s="23">
+        <v>347.00799999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>386.4</v>
+      </c>
+      <c r="D6" s="22">
+        <v>386.94400000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>624.1</v>
+      </c>
+      <c r="B7" s="22">
+        <v>624.875</v>
+      </c>
+      <c r="C7" s="22">
+        <v>624.33699999999999</v>
+      </c>
+      <c r="D7" s="22">
+        <v>624.43700000000001</v>
+      </c>
+      <c r="E7" s="23">
+        <v>624.26499999999999</v>
+      </c>
+      <c r="F7" s="63">
+        <v>624.20000000000005</v>
+      </c>
+      <c r="G7" s="23">
+        <v>624.75400000000002</v>
+      </c>
+      <c r="H7" s="23">
+        <v>623.80200000000002</v>
+      </c>
+      <c r="I7" s="23">
+        <v>624.673</v>
+      </c>
+      <c r="J7" s="23">
+        <v>624.30200000000002</v>
+      </c>
+      <c r="K7" s="23">
+        <v>623.46199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1045.93</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1046.3</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1045.26</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1046.04</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1046.0899999999999</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1045.5999999999999</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1046.5</v>
+      </c>
+      <c r="J9" s="23">
+        <v>1046.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="F10" s="23">
+        <v>1455.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="64">
+        <v>100.2</v>
+      </c>
+      <c r="B13" s="66">
+        <v>100.71599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="64">
+        <v>242</v>
+      </c>
+      <c r="B14" s="66">
+        <v>242.71799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="64">
+        <v>247.58</v>
+      </c>
+      <c r="B15" s="66">
+        <v>247.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="64">
+        <v>306.51</v>
+      </c>
+      <c r="B16" s="66">
+        <v>307.02499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="64">
+        <v>624.1</v>
+      </c>
+      <c r="B17" s="66">
+        <v>624.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="64">
+        <v>1045.93</v>
+      </c>
+      <c r="B18" s="66">
+        <v>1046.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="64">
+        <v>1454.55</v>
+      </c>
+      <c r="B19" s="66">
+        <v>1455.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC5CB77-69EC-9341-BB56-CB609F66E1D8}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="23">
+        <v>1797.44</v>
+      </c>
+      <c r="C1" s="23">
+        <v>321.18700000000001</v>
+      </c>
+      <c r="D1" s="23">
+        <v>933.28599999999994</v>
+      </c>
+      <c r="E1" s="23">
+        <v>61.035299999999999</v>
+      </c>
+      <c r="F1" s="23">
+        <v>81.859700000000004</v>
+      </c>
+      <c r="G1" s="23">
+        <v>218.34</v>
+      </c>
+      <c r="H1" s="23">
+        <v>58.0242</v>
+      </c>
+      <c r="I1" s="23">
+        <v>196.58799999999999</v>
+      </c>
+      <c r="J1" s="23">
+        <v>165.56200000000001</v>
+      </c>
+      <c r="K1" s="23">
+        <v>195.53800000000001</v>
+      </c>
+      <c r="P1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="23">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="23">
+        <v>587.59</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1335.42</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1941</v>
+      </c>
+      <c r="E2" s="23">
+        <v>2347.71</v>
+      </c>
+      <c r="F2" s="23">
+        <v>2548.0500000000002</v>
+      </c>
+      <c r="G2" s="23">
+        <v>4585.25</v>
+      </c>
+      <c r="H2" s="23">
+        <v>5124.21</v>
+      </c>
+      <c r="I2" s="23">
+        <v>5711.91</v>
+      </c>
+      <c r="J2" s="23">
+        <v>6612.65</v>
+      </c>
+      <c r="K2" s="23">
+        <v>8413.08</v>
+      </c>
+      <c r="P2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="23">
+        <v>7.5418399999999997</v>
+      </c>
+      <c r="C3" s="23">
+        <v>7.4293899999999997</v>
+      </c>
+      <c r="D3" s="23">
+        <v>7.7517100000000001</v>
+      </c>
+      <c r="E3" s="23">
+        <v>7.9572099999999999</v>
+      </c>
+      <c r="F3" s="23">
+        <v>7.8514200000000001</v>
+      </c>
+      <c r="G3" s="23">
+        <v>8.6259300000000003</v>
+      </c>
+      <c r="H3" s="23">
+        <v>8.8938600000000001</v>
+      </c>
+      <c r="I3" s="23">
+        <v>9.2524099999999994</v>
+      </c>
+      <c r="J3" s="23">
+        <v>9.7078500000000005</v>
+      </c>
+      <c r="K3" s="23">
+        <v>10.026</v>
+      </c>
+      <c r="P3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3">
+        <v>236390400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="P4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4">
+        <v>426902832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="36">
+        <v>28.58</v>
+      </c>
+      <c r="C5" s="36">
+        <v>7.5830000000000002</v>
+      </c>
+      <c r="D5" s="36">
+        <v>26.5</v>
+      </c>
+      <c r="E5" s="36">
+        <v>2.234</v>
+      </c>
+      <c r="F5" s="36">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="G5" s="36">
+        <v>12.942</v>
+      </c>
+      <c r="H5" s="36">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="I5" s="36">
+        <v>14.605</v>
+      </c>
+      <c r="J5" s="36">
+        <v>13.644</v>
+      </c>
+      <c r="K5" s="36">
+        <v>21.004999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="P6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q6">
+        <f>Q2*EXP(-LN(2)/Q4*Q3)</f>
+        <v>2946.4272214137341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="39">
+        <f>(B5/100)*$Q$8</f>
+        <v>1352394.7732073527</v>
+      </c>
+      <c r="C7" s="39">
+        <f t="shared" ref="C7:K7" si="0">(C5/100)*$Q$8</f>
+        <v>358824.68737688439</v>
+      </c>
+      <c r="D7" s="39">
+        <f t="shared" si="0"/>
+        <v>1253969.9611614712</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" si="0"/>
+        <v>105712.0337069708</v>
+      </c>
+      <c r="F7" s="39">
+        <f t="shared" si="0"/>
+        <v>133488.65133722682</v>
+      </c>
+      <c r="G7" s="39">
+        <f t="shared" si="0"/>
+        <v>612410.53725855704</v>
+      </c>
+      <c r="H7" s="39">
+        <f t="shared" si="0"/>
+        <v>200871.79189171491</v>
+      </c>
+      <c r="I7" s="39">
+        <f t="shared" si="0"/>
+        <v>691103.06727408629</v>
+      </c>
+      <c r="J7" s="39">
+        <f t="shared" si="0"/>
+        <v>645628.91132404201</v>
+      </c>
+      <c r="K7" s="39">
+        <f t="shared" si="0"/>
+        <v>993948.64279987547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="39">
+        <f t="shared" ref="B8:K8" si="1">SQRT(2*PI())*B1*B3</f>
+        <v>33979.86514730745</v>
+      </c>
+      <c r="C8" s="39">
+        <f t="shared" si="1"/>
+        <v>5981.3752594206871</v>
+      </c>
+      <c r="D8" s="39">
+        <f t="shared" si="1"/>
+        <v>18134.358714198643</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="1"/>
+        <v>1217.3959075591022</v>
+      </c>
+      <c r="F8" s="39">
+        <f t="shared" si="1"/>
+        <v>1611.0473052073421</v>
+      </c>
+      <c r="G8" s="39">
+        <f t="shared" si="1"/>
+        <v>4720.947487202553</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" si="1"/>
+        <v>1293.5683600462687</v>
+      </c>
+      <c r="I8" s="39">
+        <f t="shared" si="1"/>
+        <v>4559.3381961163213</v>
+      </c>
+      <c r="J8" s="39">
+        <f t="shared" si="1"/>
+        <v>4028.7809556879147</v>
+      </c>
+      <c r="K8" s="39">
+        <f t="shared" si="1"/>
+        <v>4914.1544637166498</v>
+      </c>
+      <c r="P8" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="63">
+        <f>Q1*Q6</f>
+        <v>4731962.1175904572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="64">
+        <f>(B8/B7)*100</f>
+        <v>2.5125699847774823</v>
+      </c>
+      <c r="C11" s="64">
+        <f t="shared" ref="C11:K11" si="2">(C8/C7)*100</f>
+        <v>1.6669352666747448</v>
+      </c>
+      <c r="D11" s="64">
+        <f t="shared" si="2"/>
+        <v>1.4461557514026859</v>
+      </c>
+      <c r="E11" s="64">
+        <f t="shared" si="2"/>
+        <v>1.1516152559638302</v>
+      </c>
+      <c r="F11" s="64">
+        <f t="shared" si="2"/>
+        <v>1.2068796029240123</v>
+      </c>
+      <c r="G11" s="64">
+        <f t="shared" si="2"/>
+        <v>0.77087953259847164</v>
+      </c>
+      <c r="H11" s="64">
+        <f t="shared" si="2"/>
+        <v>0.64397710990879198</v>
+      </c>
+      <c r="I11" s="64">
+        <f t="shared" si="2"/>
+        <v>0.65971899301499148</v>
+      </c>
+      <c r="J11" s="64">
+        <f t="shared" si="2"/>
+        <v>0.62400875875056105</v>
+      </c>
+      <c r="K11" s="64">
+        <f t="shared" si="2"/>
+        <v>0.4944072814339644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13">
+        <v>121.7817</v>
+      </c>
+      <c r="C13">
+        <v>244.69749999999999</v>
+      </c>
+      <c r="D13">
+        <v>344.27850000000001</v>
+      </c>
+      <c r="E13">
+        <v>411.11630000000002</v>
+      </c>
+      <c r="F13">
+        <v>443.96499999999997</v>
+      </c>
+      <c r="G13">
+        <v>778.904</v>
+      </c>
+      <c r="H13">
+        <v>867.37800000000004</v>
+      </c>
+      <c r="I13">
+        <v>964.07899999999995</v>
+      </c>
+      <c r="J13">
+        <v>1112.0740000000001</v>
+      </c>
+      <c r="K13">
+        <v>1408.0060000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B76971B-B785-D444-906E-B14BE718062E}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3250,7 +6829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A7681-1608-124E-8520-29226F63BDFF}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -3467,7 +7046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BAEB1E-CF2C-6A4E-B6C2-6EA04F34FC3D}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -3655,7 +7234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7680E834-25BF-554B-A055-DB729B0B172B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3839,7 +7418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB024FC4-B85F-3448-8E2A-E4C44EA629AC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3903,7 +7482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B3A609-792A-7642-9CAD-67077A136A92}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4005,7 +7584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFF8B5B-F9EE-F84C-8391-8E968454A576}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -4077,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376C050-E39F-4E43-B6D2-85F3F9FA265F}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5263,7 +8842,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5276,7 +8855,7 @@
   <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5330,10 +8909,10 @@
       </c>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
-      <c r="I2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
+      <c r="I2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="43"/>
@@ -5738,26 +9317,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="44" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
-      <c r="E27" s="57">
+      <c r="E27" s="56">
         <f>(E7+E11+E15+E19+E23)/5</f>
         <v>73.123738081458185</v>
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
-      <c r="H27" s="58">
+      <c r="H27" s="57">
         <f>(H7+H11+H15)/3</f>
         <v>54.19063168725841</v>
       </c>
-      <c r="I27" s="62"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="29" spans="1:9">
       <c r="G29" s="41"/>
-      <c r="I29" s="63"/>
+      <c r="I29" s="61"/>
     </row>
     <row r="33" spans="3:21">
       <c r="C33" s="41"/>
@@ -5832,11 +9411,117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179FB528-4B54-A84D-90FA-EEA12B7FC8B5}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>12484</v>
+      </c>
+      <c r="C1">
+        <v>4220.95</v>
+      </c>
+      <c r="F1">
+        <v>6818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2">
+        <f>$A$1-C1</f>
+        <v>8263.0499999999993</v>
+      </c>
+      <c r="F2">
+        <f>$A$1-F1</f>
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="22">
+        <v>41.44</v>
+      </c>
+      <c r="D4" s="23">
+        <v>33.179000000000002</v>
+      </c>
+      <c r="F4" s="23">
+        <v>14.7844</v>
+      </c>
+      <c r="G4" s="23">
+        <v>11.5686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="22">
+        <v>2872.27</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2872.21</v>
+      </c>
+      <c r="F5" s="23">
+        <v>3559.01</v>
+      </c>
+      <c r="G5" s="23">
+        <v>3559.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="22">
+        <v>2.3550499999999999</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2.2671399999999999</v>
+      </c>
+      <c r="F6" s="23">
+        <v>2.1241500000000002</v>
+      </c>
+      <c r="G6" s="23">
+        <v>2.1790099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8">
+        <f>SQRT(2*PI())*C4*C6</f>
+        <v>244.63005500895389</v>
+      </c>
+      <c r="D8">
+        <f>SQRT(2*PI())*D4*D6</f>
+        <v>188.55218349960046</v>
+      </c>
+      <c r="F8">
+        <f>SQRT(2*PI())*F4*F6</f>
+        <v>78.718864364037017</v>
+      </c>
+      <c r="G8">
+        <f>SQRT(2*PI())*G4*G6</f>
+        <v>63.187323892154375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11">
+        <f>(D8/C8)*100</f>
+        <v>77.076458774740132</v>
+      </c>
+      <c r="E11">
+        <f>(G8/F8)*100</f>
+        <v>80.26960805728001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC6309-A58B-6542-A774-57FD4F318D67}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5849,39 +9534,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="59"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="26" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="61">
+      <c r="A2" s="36">
         <v>3791110</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="36">
         <v>635655</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>175</v>
       </c>
       <c r="D4" t="s">
@@ -5889,25 +9574,25 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="59">
+      <c r="A5" s="58">
         <v>0.73124</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="58">
         <v>0.54191</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="58">
         <f>(A5/B5)*(B2/A2)*100</f>
         <v>22.624961894848962</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="59" t="s">
         <v>176</v>
       </c>
       <c r="D6" t="s">
@@ -5915,13 +9600,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="59">
+      <c r="A7" s="58">
         <v>0.22700000000000001</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="58">
         <v>0.54191</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="58">
         <f>(A7*B7*A2)/B2</f>
         <v>0.73366523564307684</v>
       </c>
@@ -5962,12 +9647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AEBB42-80C6-C840-889E-F6337E683372}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6056,7 +9741,7 @@
         <v>1.6042145172822191</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18">
@@ -6141,12 +9826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A42E313-E47F-404F-9F81-3A86BAAE3BBF}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6164,13 +9849,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="64" t="s">
-        <v>200</v>
+      <c r="A1" s="62" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18">
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>164</v>
@@ -6179,7 +9864,7 @@
         <v>163</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>90</v>
@@ -6276,125 +9961,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3E8E8B-B000-CD4E-AF7C-ED2D630E20AD}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23">
-        <v>1107360</v>
-      </c>
-      <c r="D2">
-        <v>0.45390000000000003</v>
-      </c>
-      <c r="E2">
-        <f>(1/D2)*(B2/C2)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF5F47-D2FE-7143-818C-1205758ECD6B}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="C2" s="22"/>
-      <c r="D2">
-        <v>1.611</v>
-      </c>
-      <c r="E2">
-        <v>0.45390000000000003</v>
-      </c>
-      <c r="F2" t="e">
-        <f>(D2/E2)*(B2/C2)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="F8" s="55" t="e">
-        <f>(1/(E2*E2))*(B8/C8)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2ED87E-3B64-C24F-AC59-0C835EBF5EDA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6404,13 +9976,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6492,4 +10064,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEDDCAB-2D63-E741-858D-EABD32ED0100}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="36">
+        <v>1241480</v>
+      </c>
+      <c r="B2" s="22">
+        <v>16208.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="25">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C5" s="25">
+        <f>(B2/A2)*(A5/B5)*100</f>
+        <v>1.7595841351537898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/divers/analysis.xlsx
+++ b/divers/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cantacuzene/n-ri-22/divers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A30D8-CABF-8A48-9A48-581E39F40342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB8A4F-3AC3-D14D-9258-4CFE1E8A27AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
+    <workbookView xWindow="-28800" yWindow="11300" windowWidth="28800" windowHeight="17500" firstSheet="3" activeTab="7" xr2:uid="{E76A3D8A-04E9-2843-901E-00CE4EC30078}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri runs" sheetId="9" r:id="rId1"/>
@@ -20,18 +20,19 @@
     <sheet name="Pn 82Ga" sheetId="16" r:id="rId5"/>
     <sheet name="Eff 84Ga" sheetId="15" r:id="rId6"/>
     <sheet name="&lt;n&gt;  84Ga" sheetId="14" r:id="rId7"/>
-    <sheet name="Eff 125Ag" sheetId="18" r:id="rId8"/>
-    <sheet name="Pn 125Ag" sheetId="19" r:id="rId9"/>
-    <sheet name="Rapports d'embranchement 84Ga" sheetId="20" r:id="rId10"/>
-    <sheet name="Calibration Run par Run" sheetId="22" r:id="rId11"/>
-    <sheet name="Efficacité source dans chambre" sheetId="21" r:id="rId12"/>
-    <sheet name="Calbration RUN58" sheetId="7" r:id="rId13"/>
-    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId14"/>
-    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId15"/>
-    <sheet name="RUN51" sheetId="10" r:id="rId16"/>
-    <sheet name="RUN55" sheetId="13" r:id="rId17"/>
-    <sheet name="RUN56" sheetId="11" r:id="rId18"/>
-    <sheet name="RUN61" sheetId="12" r:id="rId19"/>
+    <sheet name="P2n 84Ga" sheetId="24" r:id="rId8"/>
+    <sheet name="Eff 125Ag" sheetId="18" r:id="rId9"/>
+    <sheet name="Pn 125Ag" sheetId="19" r:id="rId10"/>
+    <sheet name="Rapports d'embranchement 84Ga" sheetId="20" r:id="rId11"/>
+    <sheet name="Calibration Run par Run" sheetId="22" r:id="rId12"/>
+    <sheet name="Efficacité source dans chambre" sheetId="21" r:id="rId13"/>
+    <sheet name="Calbration RUN58" sheetId="7" r:id="rId14"/>
+    <sheet name="Comparaison reglages beta" sheetId="4" r:id="rId15"/>
+    <sheet name="Calcul Pn 82Ga avec RUN29" sheetId="6" r:id="rId16"/>
+    <sheet name="RUN51" sheetId="10" r:id="rId17"/>
+    <sheet name="RUN55" sheetId="13" r:id="rId18"/>
+    <sheet name="RUN56" sheetId="11" r:id="rId19"/>
+    <sheet name="RUN61" sheetId="12" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="225">
   <si>
     <t>Pn</t>
   </si>
@@ -667,9 +668,6 @@
     <t>Gaussienne</t>
   </si>
   <si>
-    <t>Nobs</t>
-  </si>
-  <si>
     <t>Ntrue</t>
   </si>
   <si>
@@ -677,6 +675,60 @@
   </si>
   <si>
     <t>beta-neutron-gamma</t>
+  </si>
+  <si>
+    <t>NBeta84Ga</t>
+  </si>
+  <si>
+    <t>Iabs pour 100 82Ga</t>
+  </si>
+  <si>
+    <t>Iabs pour 100 84Ga</t>
+  </si>
+  <si>
+    <t>P2n</t>
+  </si>
+  <si>
+    <t>Effn</t>
+  </si>
+  <si>
+    <t>Intensitées relatives</t>
+  </si>
+  <si>
+    <t>Intensitées absolues</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>N2n</t>
+  </si>
+  <si>
+    <t>Ratio Eff</t>
+  </si>
+  <si>
+    <t>Eff n</t>
+  </si>
+  <si>
+    <t>NBeta82Ga</t>
+  </si>
+  <si>
+    <t>Iabs 1348</t>
+  </si>
+  <si>
+    <t>AllRecalibrated</t>
+  </si>
+  <si>
+    <t>Beta-Neutron cond</t>
+  </si>
+  <si>
+    <t>Beta cond</t>
+  </si>
+  <si>
+    <t>Eff neutron</t>
+  </si>
+  <si>
+    <t>Neutron cond</t>
   </si>
 </sst>
 </file>
@@ -823,7 +875,7 @@
       <name val="Menlo Regular"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +930,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -893,7 +957,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -965,6 +1029,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="2" xr:uid="{16FDB774-F211-F14E-9453-8C6A1F24C04D}"/>
@@ -4904,6 +4975,263 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79267023-4B30-1890-15FD-B6C88A98B0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="2298700"/>
+          <a:ext cx="5854700" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Ici j'ai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> fitté l'activité 2n puis fais la difference d'integrale du fit et des faux coups</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B4541F-6990-9D7B-406C-BC573976D925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5194300" y="6591300"/>
+          <a:ext cx="6400800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Ici,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> il faut que je refasse une fenetre de coinc beta-gamma qui englobe tout pour les intensitées abs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D2009C-DD22-519D-6F80-1FC8CAFEA045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573000" y="4203700"/>
+          <a:ext cx="4025900" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Ici le sigma est trop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> faible, contrairement aux coincs beta-gamma</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -4940,7 +5268,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5017,7 +5345,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5738,208 +6066,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E13C828-4E33-9640-BC5E-FFD8A4FD6CFA}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEDDCAB-2D63-E741-858D-EABD32ED0100}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:3">
+      <c r="A1" s="26" t="s">
+        <v>170</v>
+      </c>
       <c r="B1" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="65">
-        <f>(68.856*(B5^(-0.676)))/100</f>
-        <v>1.6549686378398976E-2</v>
-      </c>
-      <c r="C2" s="65">
-        <f t="shared" ref="C2" si="0">(68.856*(C5^(-0.676)))/100</f>
-        <v>6.260382576393414E-3</v>
-      </c>
-      <c r="D2" s="65">
-        <f>(68.856*(D5^(-0.676)))/100</f>
-        <v>5.2721317462434848E-3</v>
-      </c>
-      <c r="G2" s="65">
-        <f>(68.856*(G5^(-0.676)))/100</f>
-        <v>1.6550406962355872E-2</v>
-      </c>
-      <c r="H2" s="65">
-        <f>(68.856*(H5^(-0.676)))/100</f>
-        <v>6.2606656731358833E-3</v>
-      </c>
-      <c r="I2" s="65">
-        <f>(68.856*(I5^(-0.676)))/100</f>
-        <v>5.2714715184612989E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="26"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="36">
+        <v>1241480</v>
+      </c>
+      <c r="B2" s="22">
+        <v>16208.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="23">
-        <v>425.55099999999999</v>
-      </c>
-      <c r="C4" s="23">
-        <v>92.220600000000005</v>
-      </c>
-      <c r="D4" s="23">
-        <v>25.5579</v>
-      </c>
-      <c r="G4" s="23">
-        <v>222.64699999999999</v>
-      </c>
-      <c r="H4" s="23">
-        <v>41.212000000000003</v>
-      </c>
-      <c r="I4" s="23">
-        <v>9.6862999999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23">
-        <v>248.42500000000001</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1046.49</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1349.31</v>
-      </c>
-      <c r="G5" s="23">
-        <v>248.40899999999999</v>
-      </c>
-      <c r="H5" s="23">
-        <v>1046.42</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1349.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23">
-        <v>1.0161</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1.2176199999999999</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1.42838</v>
-      </c>
-      <c r="G6" s="23">
-        <v>1.00502</v>
-      </c>
-      <c r="H6" s="23">
-        <v>1.3639300000000001</v>
-      </c>
-      <c r="I6" s="23">
-        <v>1.8105500000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="26"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="63">
-        <f>SQRT(2*PI())*B4*B6</f>
-        <v>1083.8720094167466</v>
-      </c>
-      <c r="C8">
-        <f>SQRT(2*PI())*C6*C4</f>
-        <v>281.46840404834848</v>
-      </c>
-      <c r="D8">
-        <f>SQRT(2*PI())*D6*D4</f>
-        <v>91.507957404930139</v>
-      </c>
-      <c r="G8" s="39">
-        <f>SQRT(2*PI())*G4*G6</f>
-        <v>560.89489365438635</v>
-      </c>
-      <c r="H8" s="39">
-        <f>SQRT(2*PI())*H4*H6</f>
-        <v>140.89828509387078</v>
-      </c>
-      <c r="I8" s="39">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="26"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10">
-        <f>B8/B2</f>
-        <v>65491.996925781066</v>
-      </c>
-      <c r="C10">
-        <f>C8/C2</f>
-        <v>44960.25612072122</v>
-      </c>
-      <c r="D10">
-        <f>D8/D2</f>
-        <v>17356.917810358525</v>
-      </c>
-      <c r="G10">
-        <f>G8/G2</f>
-        <v>33890.096777085273</v>
-      </c>
-      <c r="H10">
-        <f>H8/H2</f>
-        <v>22505.320112916481</v>
-      </c>
-      <c r="I10">
-        <f>I8/I2</f>
-        <v>3035.2056240778616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="26"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="26"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13">
-        <f>C10/B10</f>
-        <v>0.68650000352978269</v>
-      </c>
-      <c r="D13">
-        <f>D10/B10</f>
-        <v>0.26502349332893738</v>
-      </c>
-      <c r="H13">
-        <f>H10/G10</f>
-        <v>0.66406774406538172</v>
-      </c>
-      <c r="I13">
-        <f>I10/H10</f>
-        <v>0.13486613871072492</v>
+        <v>172</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="25">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C5" s="25">
+        <f>(B2/A2)*(A5/B5)*100</f>
+        <v>1.7595841351537898</v>
       </c>
     </row>
   </sheetData>
@@ -5948,6 +6123,513 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E13C828-4E33-9640-BC5E-FFD8A4FD6CFA}">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="65">
+        <f>(68.856*(B5^(-0.676)))/100</f>
+        <v>1.6549686378398976E-2</v>
+      </c>
+      <c r="C2" s="65">
+        <f t="shared" ref="C2" si="0">(68.856*(C5^(-0.676)))/100</f>
+        <v>6.260382576393414E-3</v>
+      </c>
+      <c r="D2" s="65">
+        <f>(68.856*(D5^(-0.676)))/100</f>
+        <v>5.2721317462434848E-3</v>
+      </c>
+      <c r="G2" s="65">
+        <f>(68.856*(G5^(-0.676)))/100</f>
+        <v>1.6550406962355872E-2</v>
+      </c>
+      <c r="H2" s="65">
+        <f>(68.856*(H5^(-0.676)))/100</f>
+        <v>6.2606656731358833E-3</v>
+      </c>
+      <c r="I2" s="65">
+        <f>(68.856*(I5^(-0.676)))/100</f>
+        <v>5.2714715184612989E-3</v>
+      </c>
+      <c r="J2" s="65">
+        <f>(68.856*(J5^(-0.676)))/100</f>
+        <v>1.8184622897557332E-2</v>
+      </c>
+      <c r="L2" s="23">
+        <v>1107360</v>
+      </c>
+      <c r="M2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N2">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="63">
+        <f>L2*M2</f>
+        <v>17717.760000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="26"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="23">
+        <v>425.55099999999999</v>
+      </c>
+      <c r="C4" s="23">
+        <v>92.220600000000005</v>
+      </c>
+      <c r="D4" s="23">
+        <v>25.5579</v>
+      </c>
+      <c r="G4" s="23">
+        <v>222.64699999999999</v>
+      </c>
+      <c r="H4" s="23">
+        <v>41.212000000000003</v>
+      </c>
+      <c r="I4" s="23">
+        <v>9.6862999999999992</v>
+      </c>
+      <c r="J4" s="23">
+        <v>10.580299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23">
+        <v>248.42500000000001</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1046.49</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1349.31</v>
+      </c>
+      <c r="G5" s="23">
+        <v>248.40899999999999</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1046.42</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1349.56</v>
+      </c>
+      <c r="J5" s="23">
+        <v>216.108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23">
+        <v>1.0161</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1.2176199999999999</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1.42838</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1.00502</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1.3639300000000001</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1.8105500000000001</v>
+      </c>
+      <c r="J6" s="23">
+        <v>1.0967499999999999</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="M6" s="39">
+        <f>(D23/O2)*(1/D17)*100</f>
+        <v>89.12925353270667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="26"/>
+      <c r="M7" s="63"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="63">
+        <f>SQRT(2*PI())*B4*B6</f>
+        <v>1083.8720094167466</v>
+      </c>
+      <c r="C8">
+        <f>SQRT(2*PI())*C6*C4</f>
+        <v>281.46840404834848</v>
+      </c>
+      <c r="D8">
+        <f>SQRT(2*PI())*D6*D4</f>
+        <v>91.507957404930139</v>
+      </c>
+      <c r="G8" s="39">
+        <f>SQRT(2*PI())*G4*G6</f>
+        <v>560.89489365438635</v>
+      </c>
+      <c r="H8" s="39">
+        <f>SQRT(2*PI())*H4*H6</f>
+        <v>140.89828509387078</v>
+      </c>
+      <c r="I8" s="39">
+        <v>16</v>
+      </c>
+      <c r="J8" s="39">
+        <f>SQRT(2*PI())*J4*J6</f>
+        <v>29.086774190300449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="26"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10">
+        <f>B8/B2</f>
+        <v>65491.996925781066</v>
+      </c>
+      <c r="C10">
+        <f>C8/C2</f>
+        <v>44960.25612072122</v>
+      </c>
+      <c r="D10">
+        <f>D8/D2</f>
+        <v>17356.917810358525</v>
+      </c>
+      <c r="G10">
+        <f>G8/G2</f>
+        <v>33890.096777085273</v>
+      </c>
+      <c r="H10">
+        <f>H8/H2</f>
+        <v>22505.320112916481</v>
+      </c>
+      <c r="I10">
+        <f>I8/I2</f>
+        <v>3035.2056240778616</v>
+      </c>
+      <c r="J10">
+        <f>J8/J2</f>
+        <v>1599.5258386253124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="26"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="26"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13">
+        <f>C10/B10</f>
+        <v>0.68650000352978269</v>
+      </c>
+      <c r="D13">
+        <f>D10/B10</f>
+        <v>0.26502349332893738</v>
+      </c>
+      <c r="H13">
+        <f>H10/G10</f>
+        <v>0.66406774406538172</v>
+      </c>
+      <c r="I13">
+        <f>I10/$G$10</f>
+        <v>8.9560252484439953E-2</v>
+      </c>
+      <c r="J13">
+        <f>J10/$G$10</f>
+        <v>4.7197440867351816E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="65">
+        <f>(68.856*(B20^(-0.676)))/100</f>
+        <v>8.8769043172426242E-3</v>
+      </c>
+      <c r="C17" s="65">
+        <f>(68.856*(C20^(-0.676)))/100</f>
+        <v>1.6580560927521595E-2</v>
+      </c>
+      <c r="D17" s="65">
+        <f>(68.856*(D20^(-0.676)))/100</f>
+        <v>5.2734263876051358E-3</v>
+      </c>
+      <c r="E17" s="65">
+        <f>(68.856*(E20^(-0.676)))/100</f>
+        <v>6.2632554586870958E-3</v>
+      </c>
+      <c r="F17" s="65">
+        <f>(68.856*(F20^(-0.676)))/100</f>
+        <v>6.081742361652728E-3</v>
+      </c>
+      <c r="H17" s="65">
+        <f>(68.856*(H20^(-0.676)))/100</f>
+        <v>1.6580425200950922E-2</v>
+      </c>
+      <c r="I17" s="65">
+        <f>(68.856*(I20^(-0.676)))/100</f>
+        <v>6.2629720715264414E-3</v>
+      </c>
+      <c r="J17" s="67">
+        <f>(68.856*(J20^(-0.676)))/100</f>
+        <v>5.2775268773856913E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="26"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="23">
+        <v>294.02699999999999</v>
+      </c>
+      <c r="C19" s="23">
+        <v>710.19299999999998</v>
+      </c>
+      <c r="D19" s="23">
+        <v>27.942</v>
+      </c>
+      <c r="E19" s="23">
+        <v>120.044</v>
+      </c>
+      <c r="F19" s="23">
+        <v>19.048999999999999</v>
+      </c>
+      <c r="H19" s="22">
+        <v>350.45400000000001</v>
+      </c>
+      <c r="I19" s="22">
+        <v>52.873699999999999</v>
+      </c>
+      <c r="J19" s="69">
+        <v>8.5186600000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="26"/>
+      <c r="B20" s="23">
+        <v>624.28800000000001</v>
+      </c>
+      <c r="C20" s="23">
+        <v>247.74100000000001</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1348.82</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1045.78</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1092.28</v>
+      </c>
+      <c r="H20" s="22">
+        <v>247.744</v>
+      </c>
+      <c r="I20" s="22">
+        <v>1045.8499999999999</v>
+      </c>
+      <c r="J20" s="69">
+        <v>1347.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="26"/>
+      <c r="B21" s="23">
+        <v>1.1854199999999999</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.94900399999999996</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1.1889799999999999</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1.2574700000000001</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1.0034400000000001</v>
+      </c>
+      <c r="H21" s="22">
+        <v>0.99024900000000005</v>
+      </c>
+      <c r="I21" s="22">
+        <v>1.39036</v>
+      </c>
+      <c r="J21" s="69">
+        <v>0.769397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="26"/>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="39">
+        <f>SQRT(2*PI())*B19*B21</f>
+        <v>873.67397105485702</v>
+      </c>
+      <c r="C23" s="39">
+        <f>SQRT(2*PI())*C19*C21</f>
+        <v>1689.4072924379352</v>
+      </c>
+      <c r="D23" s="39">
+        <f>SQRT(2*PI())*D19*D21</f>
+        <v>83.276405615795156</v>
+      </c>
+      <c r="E23" s="39">
+        <f>SQRT(2*PI())*E19*E21</f>
+        <v>378.37987121371532</v>
+      </c>
+      <c r="F23" s="39">
+        <f>SQRT(2*PI())*F19*F21</f>
+        <v>47.913017744737786</v>
+      </c>
+      <c r="H23" s="39">
+        <f>SQRT(2*PI())*H19*H21</f>
+        <v>869.89206232239133</v>
+      </c>
+      <c r="I23" s="39">
+        <f>SQRT(2*PI())*I19*I21</f>
+        <v>184.27096134816199</v>
+      </c>
+      <c r="J23" s="70">
+        <f>SQRT(2*PI())*J19*J21</f>
+        <v>16.429021866082614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="26"/>
+      <c r="J24" s="68"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="25">
+        <f>(B23/$L$2)*(1/B17)*100</f>
+        <v>8.8878972774306391</v>
+      </c>
+      <c r="C25" s="25">
+        <f>(C23/$L$2)*(1/C17)*100</f>
+        <v>9.2012390474092243</v>
+      </c>
+      <c r="D25" s="72">
+        <f>(D23/$L$2)*(1/D17)*100</f>
+        <v>1.4260680565233068</v>
+      </c>
+      <c r="E25" s="25">
+        <f>(E23/$L$2)*(1/E17)*100</f>
+        <v>5.4555566219258642</v>
+      </c>
+      <c r="F25" s="25">
+        <f>(F23/$L$2)*(1/F17)*100</f>
+        <v>0.71143737188614276</v>
+      </c>
+      <c r="H25" s="25">
+        <f>(H23/($L$2*H17*$N$2))*100</f>
+        <v>9.4756905191032423</v>
+      </c>
+      <c r="I25" s="25">
+        <f>(I23/($L$2*I17*$N$2))*100</f>
+        <v>5.313951548550282</v>
+      </c>
+      <c r="J25" s="71">
+        <f>(J23/($L$2*J17*$N$2))*100</f>
+        <v>0.56224087751829466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="26"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="H28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="N29" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F557EAE-683C-2C49-8A3A-5A156BF8F341}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6193,7 +6875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC5CB77-69EC-9341-BB56-CB609F66E1D8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -6627,7 +7309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B76971B-B785-D444-906E-B14BE718062E}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -6829,7 +7511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A7681-1608-124E-8520-29226F63BDFF}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -7046,7 +7728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BAEB1E-CF2C-6A4E-B6C2-6EA04F34FC3D}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -7234,7 +7916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7680E834-25BF-554B-A055-DB729B0B172B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -7418,7 +8100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB024FC4-B85F-3448-8E2A-E4C44EA629AC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7482,7 +8164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B3A609-792A-7642-9CAD-67077A136A92}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -7578,74 +8260,6 @@
         <f>B13/A13</f>
         <v>0.34915320010692324</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFF8B5B-F9EE-F84C-8391-8E968454A576}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18">
-      <c r="A3" s="6">
-        <v>287.565</v>
-      </c>
-      <c r="B3" s="7">
-        <v>317.685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="7">
-        <v>263.589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18">
-      <c r="A5" s="6">
-        <v>0.82717399999999996</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.837754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11">
-        <f>SQRT(2*PI())*A3*A5</f>
-        <v>596.24237137926013</v>
-      </c>
-      <c r="B7" s="11">
-        <f>SQRT(2*PI())*B3*B5</f>
-        <v>667.11876019307033</v>
-      </c>
-      <c r="C7" s="4">
-        <f>B7/A7</f>
-        <v>1.1188717746607895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="H14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8850,12 +9464,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFF8B5B-F9EE-F84C-8391-8E968454A576}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="6">
+        <v>287.565</v>
+      </c>
+      <c r="B3" s="7">
+        <v>317.685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="7">
+        <v>263.589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" s="6">
+        <v>0.82717399999999996</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.837754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11">
+        <f>SQRT(2*PI())*A3*A5</f>
+        <v>596.24237137926013</v>
+      </c>
+      <c r="B7" s="11">
+        <f>SQRT(2*PI())*B3*B5</f>
+        <v>667.11876019307033</v>
+      </c>
+      <c r="C7" s="4">
+        <f>B7/A7</f>
+        <v>1.1188717746607895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="H14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFFCE4E-1904-9441-B800-76A5932E8BAB}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9521,7 +10203,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9649,10 +10331,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AEBB42-80C6-C840-889E-F6337E683372}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9791,35 +10473,202 @@
       <c r="D14" s="7"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="18">
-      <c r="B15" s="22"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+    <row r="15" spans="1:6" ht="23">
+      <c r="A15" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="18" spans="2:4" ht="18">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" ht="18">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4" ht="18">
+      <c r="B16" s="22">
+        <v>355.43299999999999</v>
+      </c>
+      <c r="C16" s="23">
+        <v>689.76700000000005</v>
+      </c>
+      <c r="D16" s="23">
+        <v>415.93900000000002</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" ht="18">
+      <c r="B17" s="22">
+        <v>247.73400000000001</v>
+      </c>
+      <c r="C17" s="23">
+        <v>247.69900000000001</v>
+      </c>
+      <c r="D17" s="23">
+        <v>247.76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18">
+      <c r="B18" s="22">
+        <v>0.98478299999999996</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1.0136000000000001</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1.05288</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" ht="18">
+      <c r="B19" s="3">
+        <f>SQRT(2*PI())*B16*B18</f>
+        <v>877.38099778943092</v>
+      </c>
+      <c r="C19" s="3">
+        <f>SQRT(2*PI())*C16*C18</f>
+        <v>1752.5037218328619</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SQRT(2*PI())*D16*D18</f>
+        <v>1097.7373816566455</v>
+      </c>
+      <c r="E19" s="8">
+        <f>B19/C19*100</f>
+        <v>50.06442992724827</v>
+      </c>
+      <c r="F19" s="3">
+        <f>B19/D19*100</f>
+        <v>79.926311379260426</v>
+      </c>
+      <c r="G19" s="1">
+        <f>F19/E19</f>
+        <v>1.5964690199290457</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:4" ht="18">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" ht="18">
+      <c r="B21" s="22">
+        <v>56.561599999999999</v>
+      </c>
+      <c r="C21" s="23">
+        <v>120.589</v>
+      </c>
+      <c r="D21" s="23">
+        <v>67.653099999999995</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" ht="18">
+      <c r="B22" s="22">
+        <v>1045.9000000000001</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1045.81</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1046.0899999999999</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" ht="18">
+      <c r="B23" s="22">
+        <v>1.3903799999999999</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1.39832</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1.64594</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" ht="18">
+      <c r="B24" s="3">
+        <f>SQRT(2*PI())*B21*B23</f>
+        <v>197.12655507174355</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SQRT(2*PI())*C21*C23</f>
+        <v>422.67269919429282</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SQRT(2*PI())*D21*D23</f>
+        <v>279.12043642491818</v>
+      </c>
+      <c r="E24" s="8">
+        <f>B24/C24*100</f>
+        <v>46.638109214886633</v>
+      </c>
+      <c r="F24" s="3">
+        <f>B24/D24*100</f>
+        <v>70.624192766612225</v>
+      </c>
+      <c r="G24" s="1">
+        <f>F24/E24</f>
+        <v>1.5143022295609996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" ht="18">
+      <c r="B26" s="22">
+        <v>33.713799999999999</v>
+      </c>
+      <c r="C26" s="23">
+        <v>324.50599999999997</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" ht="18">
+      <c r="B27" s="22">
+        <v>306.70299999999997</v>
+      </c>
+      <c r="C27" s="23">
+        <v>306.49900000000002</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" ht="18">
+      <c r="B28" s="22">
+        <v>0.65034099999999995</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.93503700000000001</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" ht="18">
+      <c r="B29" s="3">
+        <f>SQRT(2*PI())*B26*B28</f>
+        <v>54.958994027250412</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SQRT(2*PI())*C26*C28</f>
+        <v>760.57397680857673</v>
+      </c>
+      <c r="E29" s="8">
+        <f>B29/C29*100</f>
+        <v>7.2259892795520448</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9831,7 +10680,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9873,7 +10722,7 @@
     <row r="3" spans="1:7" ht="18">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
-        <v>1.611</v>
+        <v>1.6</v>
       </c>
       <c r="C3" s="22">
         <v>258102</v>
@@ -9883,7 +10732,7 @@
       </c>
       <c r="E3" s="2">
         <f>(C3/D3)*B3*100</f>
-        <v>37.548974317295183</v>
+        <v>37.292587776332901</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -9962,6 +10811,63 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0761D963-F188-3C4D-AF32-2830265680AC}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="23">
+        <v>1107360</v>
+      </c>
+      <c r="D2">
+        <v>5417</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="39">
+        <f>(D2/C2)*E2*(1/F2)*100</f>
+        <v>1.5653807253287098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="F3" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2ED87E-3B64-C24F-AC59-0C835EBF5EDA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -10064,61 +10970,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEDDCAB-2D63-E741-858D-EABD32ED0100}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="36">
-        <v>1241480</v>
-      </c>
-      <c r="B2" s="22">
-        <v>16208.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="25">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="B5" s="25">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="C5" s="25">
-        <f>(B2/A2)*(A5/B5)*100</f>
-        <v>1.7595841351537898</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>